--- a/Papilddati/EGV_aprakstiem_20241227.xlsx
+++ b/Papilddati/EGV_aprakstiem_20241227.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrisavotins/Documents/projekti/LVAFA_SDMs/Darbam/PutnuSDMs_gramata/Papilddati/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3B707D-E368-414E-8D3D-ACE90D593DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB9000B-10D5-F94C-89A2-B50E4581BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35900" yWindow="500" windowWidth="25480" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1354">
   <si>
     <t>Ainava_Apbuve_cell.tif</t>
   </si>
@@ -3087,16 +3087,1033 @@
   </si>
   <si>
     <t>https://drive.usercontent.google.com/u/0/uc?id=1jhK-TxSm5bpW4lebcPBmQE2WfkJu3bGf&amp;export=download</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.01</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.02</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.03</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.04</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.05</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.06</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.07</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.08</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.09</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.10</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.11</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.12</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.13</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.14</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.15</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.16</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.17</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.18</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.19</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.20</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.21</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.22</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.23</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.24</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.25</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.26</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.27</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.28</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.29</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.30</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.31</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.32</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.33</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.34</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.35</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.36</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.37</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.38</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.39</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.40</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.41</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.42</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.43</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.2.44</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.3.01</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.3.02</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.3.03</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.3.04</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.3.05</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.3.06</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.01</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.02</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.03</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.04</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.05</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.06</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.07</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.08</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.09</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.10</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.11</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.4.12</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.5.01</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.5.02</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.5.03</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.5.04</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.5.05</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.5.06</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.01</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.02</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.03</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.04</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.05</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.06</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.07</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.08</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.09</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.10</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.11</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.12</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.6.13</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.01</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.02</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.03</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.04</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.05</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.06</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.07</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.08</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.09</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.10</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.11</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.12</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.13</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.14</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.15</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.16</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.17</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.18</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.19</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.20</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.21</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.22</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.23</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.24</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.25</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.26</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.27</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.28</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.29</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.30</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.31</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.32</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.33</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.34</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.35</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.36</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.37</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.38</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.39</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.40</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.41</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.42</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.43</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.44</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.45</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.46</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.47</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.48</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.49</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.50</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.51</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.52</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.53</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.54</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.55</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.56</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.57</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.58</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.59</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.60</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.61</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.62</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.63</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.64</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.65</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.66</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.67</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.68</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.69</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.70</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.71</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.72</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.7.73</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.01</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.02</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.03</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.04</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.05</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.06</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.07</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.08</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.09</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.10</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.11</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.12</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.13</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.14</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.15</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.16</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.17</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.18</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.19</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.20</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.21</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.22</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.23</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.24</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.25</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.26</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.27</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.28</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.29</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.30</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.31</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.32</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.33</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.34</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.35</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.36</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.37</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.38</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.39</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.40</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.41</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.42</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.43</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.44</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.45</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.46</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.47</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.48</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.49</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.50</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.51</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.52</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.53</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.54</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.55</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.56</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.57</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.58</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.59</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.8.60</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.001</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.002</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.003</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.004</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.005</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.006</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.007</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.008</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.009</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.010</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.011</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.012</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.013</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.014</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.015</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.016</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.017</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.018</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.019</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.020</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.021</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.022</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.023</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.024</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.025</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.026</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.027</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.028</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.029</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.030</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.031</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.032</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.033</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.034</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.035</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.036</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.037</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.038</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.039</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.040</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.041</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.042</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.043</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.044</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.045</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.046</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.047</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.048</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.049</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.050</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.051</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.052</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.053</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.054</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.055</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.056</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.057</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.058</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.059</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.060</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.061</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.062</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.063</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.064</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.065</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.066</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.067</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.068</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.069</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.070</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.071</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.072</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.073</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.074</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.075</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.076</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.077</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.078</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.079</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.080</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.081</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.082</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.083</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.084</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.085</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.086</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.087</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.088</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.089</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.090</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.091</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.092</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.093</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.094</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.095</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.096</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.097</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.098</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.099</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.100</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.101</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.102</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.103</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.104</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.105</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.106</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.107</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.108</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.109</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.9.110</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.01</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.02</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.03</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.04</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.05</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.06</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.07</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.08</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.09</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.10</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.11</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.10.12</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.11.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3422,17 +4439,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216:A325"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.83203125" customWidth="1"/>
-    <col min="5" max="5" width="54.1640625" customWidth="1"/>
+    <col min="5" max="5" width="62.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3469,6 +4484,9 @@
       <c r="D2" t="s">
         <v>378</v>
       </c>
+      <c r="E2" t="s">
+        <v>1017</v>
+      </c>
       <c r="F2" t="s">
         <v>680</v>
       </c>
@@ -3487,6 +4505,9 @@
       <c r="D3" t="s">
         <v>379</v>
       </c>
+      <c r="E3" t="s">
+        <v>1018</v>
+      </c>
       <c r="F3" t="s">
         <v>681</v>
       </c>
@@ -3505,6 +4526,9 @@
       <c r="D4" t="s">
         <v>380</v>
       </c>
+      <c r="E4" t="s">
+        <v>1019</v>
+      </c>
       <c r="F4" t="s">
         <v>682</v>
       </c>
@@ -3523,6 +4547,9 @@
       <c r="D5" t="s">
         <v>381</v>
       </c>
+      <c r="E5" t="s">
+        <v>1020</v>
+      </c>
       <c r="F5" t="s">
         <v>683</v>
       </c>
@@ -3541,6 +4568,9 @@
       <c r="D6" t="s">
         <v>382</v>
       </c>
+      <c r="E6" t="s">
+        <v>1021</v>
+      </c>
       <c r="F6" t="s">
         <v>684</v>
       </c>
@@ -3559,6 +4589,9 @@
       <c r="D7" t="s">
         <v>383</v>
       </c>
+      <c r="E7" t="s">
+        <v>1022</v>
+      </c>
       <c r="F7" t="s">
         <v>685</v>
       </c>
@@ -3577,6 +4610,9 @@
       <c r="D8" t="s">
         <v>384</v>
       </c>
+      <c r="E8" t="s">
+        <v>1023</v>
+      </c>
       <c r="F8" t="s">
         <v>686</v>
       </c>
@@ -3595,6 +4631,9 @@
       <c r="D9" t="s">
         <v>385</v>
       </c>
+      <c r="E9" t="s">
+        <v>1024</v>
+      </c>
       <c r="F9" t="s">
         <v>687</v>
       </c>
@@ -3613,6 +4652,9 @@
       <c r="D10" t="s">
         <v>386</v>
       </c>
+      <c r="E10" t="s">
+        <v>1025</v>
+      </c>
       <c r="F10" t="s">
         <v>688</v>
       </c>
@@ -3631,6 +4673,9 @@
       <c r="D11" t="s">
         <v>387</v>
       </c>
+      <c r="E11" t="s">
+        <v>1026</v>
+      </c>
       <c r="F11" t="s">
         <v>689</v>
       </c>
@@ -3649,6 +4694,9 @@
       <c r="D12" t="s">
         <v>388</v>
       </c>
+      <c r="E12" t="s">
+        <v>1027</v>
+      </c>
       <c r="F12" t="s">
         <v>690</v>
       </c>
@@ -3667,6 +4715,9 @@
       <c r="D13" t="s">
         <v>389</v>
       </c>
+      <c r="E13" t="s">
+        <v>1028</v>
+      </c>
       <c r="F13" t="s">
         <v>691</v>
       </c>
@@ -3685,6 +4736,9 @@
       <c r="D14" t="s">
         <v>390</v>
       </c>
+      <c r="E14" t="s">
+        <v>1029</v>
+      </c>
       <c r="F14" t="s">
         <v>692</v>
       </c>
@@ -3703,6 +4757,9 @@
       <c r="D15" t="s">
         <v>391</v>
       </c>
+      <c r="E15" t="s">
+        <v>1030</v>
+      </c>
       <c r="F15" t="s">
         <v>693</v>
       </c>
@@ -3721,6 +4778,9 @@
       <c r="D16" t="s">
         <v>392</v>
       </c>
+      <c r="E16" t="s">
+        <v>1031</v>
+      </c>
       <c r="F16" t="s">
         <v>694</v>
       </c>
@@ -3739,6 +4799,9 @@
       <c r="D17" t="s">
         <v>393</v>
       </c>
+      <c r="E17" t="s">
+        <v>1032</v>
+      </c>
       <c r="F17" t="s">
         <v>695</v>
       </c>
@@ -3757,6 +4820,9 @@
       <c r="D18" t="s">
         <v>394</v>
       </c>
+      <c r="E18" t="s">
+        <v>1033</v>
+      </c>
       <c r="F18" t="s">
         <v>696</v>
       </c>
@@ -3775,6 +4841,9 @@
       <c r="D19" t="s">
         <v>395</v>
       </c>
+      <c r="E19" t="s">
+        <v>1034</v>
+      </c>
       <c r="F19" t="s">
         <v>697</v>
       </c>
@@ -3793,6 +4862,9 @@
       <c r="D20" t="s">
         <v>396</v>
       </c>
+      <c r="E20" t="s">
+        <v>1035</v>
+      </c>
       <c r="F20" t="s">
         <v>698</v>
       </c>
@@ -3811,6 +4883,9 @@
       <c r="D21" t="s">
         <v>397</v>
       </c>
+      <c r="E21" t="s">
+        <v>1036</v>
+      </c>
       <c r="F21" t="s">
         <v>699</v>
       </c>
@@ -3829,6 +4904,9 @@
       <c r="D22" t="s">
         <v>398</v>
       </c>
+      <c r="E22" t="s">
+        <v>1037</v>
+      </c>
       <c r="F22" t="s">
         <v>700</v>
       </c>
@@ -3847,6 +4925,9 @@
       <c r="D23" t="s">
         <v>399</v>
       </c>
+      <c r="E23" t="s">
+        <v>1038</v>
+      </c>
       <c r="F23" t="s">
         <v>701</v>
       </c>
@@ -3865,6 +4946,9 @@
       <c r="D24" t="s">
         <v>400</v>
       </c>
+      <c r="E24" t="s">
+        <v>1039</v>
+      </c>
       <c r="F24" t="s">
         <v>702</v>
       </c>
@@ -3883,6 +4967,9 @@
       <c r="D25" t="s">
         <v>401</v>
       </c>
+      <c r="E25" t="s">
+        <v>1040</v>
+      </c>
       <c r="F25" t="s">
         <v>703</v>
       </c>
@@ -3901,6 +4988,9 @@
       <c r="D26" t="s">
         <v>402</v>
       </c>
+      <c r="E26" t="s">
+        <v>1041</v>
+      </c>
       <c r="F26" t="s">
         <v>704</v>
       </c>
@@ -3919,6 +5009,9 @@
       <c r="D27" t="s">
         <v>403</v>
       </c>
+      <c r="E27" t="s">
+        <v>1042</v>
+      </c>
       <c r="F27" t="s">
         <v>705</v>
       </c>
@@ -3937,6 +5030,9 @@
       <c r="D28" t="s">
         <v>404</v>
       </c>
+      <c r="E28" t="s">
+        <v>1043</v>
+      </c>
       <c r="F28" t="s">
         <v>706</v>
       </c>
@@ -3955,6 +5051,9 @@
       <c r="D29" t="s">
         <v>405</v>
       </c>
+      <c r="E29" t="s">
+        <v>1044</v>
+      </c>
       <c r="F29" t="s">
         <v>707</v>
       </c>
@@ -3973,6 +5072,9 @@
       <c r="D30" t="s">
         <v>406</v>
       </c>
+      <c r="E30" t="s">
+        <v>1045</v>
+      </c>
       <c r="F30" t="s">
         <v>708</v>
       </c>
@@ -3991,6 +5093,9 @@
       <c r="D31" t="s">
         <v>407</v>
       </c>
+      <c r="E31" t="s">
+        <v>1046</v>
+      </c>
       <c r="F31" t="s">
         <v>709</v>
       </c>
@@ -4009,6 +5114,9 @@
       <c r="D32" t="s">
         <v>408</v>
       </c>
+      <c r="E32" t="s">
+        <v>1047</v>
+      </c>
       <c r="F32" t="s">
         <v>710</v>
       </c>
@@ -4027,6 +5135,9 @@
       <c r="D33" t="s">
         <v>409</v>
       </c>
+      <c r="E33" t="s">
+        <v>1048</v>
+      </c>
       <c r="F33" t="s">
         <v>711</v>
       </c>
@@ -4045,6 +5156,9 @@
       <c r="D34" t="s">
         <v>410</v>
       </c>
+      <c r="E34" t="s">
+        <v>1049</v>
+      </c>
       <c r="F34" t="s">
         <v>712</v>
       </c>
@@ -4063,6 +5177,9 @@
       <c r="D35" t="s">
         <v>411</v>
       </c>
+      <c r="E35" t="s">
+        <v>1050</v>
+      </c>
       <c r="F35" t="s">
         <v>713</v>
       </c>
@@ -4081,6 +5198,9 @@
       <c r="D36" t="s">
         <v>412</v>
       </c>
+      <c r="E36" t="s">
+        <v>1051</v>
+      </c>
       <c r="F36" t="s">
         <v>714</v>
       </c>
@@ -4099,6 +5219,9 @@
       <c r="D37" t="s">
         <v>413</v>
       </c>
+      <c r="E37" t="s">
+        <v>1052</v>
+      </c>
       <c r="F37" t="s">
         <v>715</v>
       </c>
@@ -4117,6 +5240,9 @@
       <c r="D38" t="s">
         <v>414</v>
       </c>
+      <c r="E38" t="s">
+        <v>1053</v>
+      </c>
       <c r="F38" t="s">
         <v>716</v>
       </c>
@@ -4135,6 +5261,9 @@
       <c r="D39" t="s">
         <v>415</v>
       </c>
+      <c r="E39" t="s">
+        <v>1054</v>
+      </c>
       <c r="F39" t="s">
         <v>717</v>
       </c>
@@ -4153,6 +5282,9 @@
       <c r="D40" t="s">
         <v>416</v>
       </c>
+      <c r="E40" t="s">
+        <v>1055</v>
+      </c>
       <c r="F40" t="s">
         <v>718</v>
       </c>
@@ -4171,6 +5303,9 @@
       <c r="D41" t="s">
         <v>417</v>
       </c>
+      <c r="E41" t="s">
+        <v>1056</v>
+      </c>
       <c r="F41" t="s">
         <v>719</v>
       </c>
@@ -4189,6 +5324,9 @@
       <c r="D42" t="s">
         <v>418</v>
       </c>
+      <c r="E42" t="s">
+        <v>1057</v>
+      </c>
       <c r="F42" t="s">
         <v>720</v>
       </c>
@@ -4207,6 +5345,9 @@
       <c r="D43" t="s">
         <v>419</v>
       </c>
+      <c r="E43" t="s">
+        <v>1058</v>
+      </c>
       <c r="F43" t="s">
         <v>721</v>
       </c>
@@ -4225,6 +5366,9 @@
       <c r="D44" t="s">
         <v>420</v>
       </c>
+      <c r="E44" t="s">
+        <v>1059</v>
+      </c>
       <c r="F44" t="s">
         <v>722</v>
       </c>
@@ -4243,6 +5387,9 @@
       <c r="D45" t="s">
         <v>421</v>
       </c>
+      <c r="E45" t="s">
+        <v>1060</v>
+      </c>
       <c r="F45" t="s">
         <v>723</v>
       </c>
@@ -4261,6 +5408,9 @@
       <c r="D46" t="s">
         <v>341</v>
       </c>
+      <c r="E46" t="s">
+        <v>1061</v>
+      </c>
       <c r="F46" t="s">
         <v>724</v>
       </c>
@@ -4279,6 +5429,9 @@
       <c r="D47" t="s">
         <v>344</v>
       </c>
+      <c r="E47" t="s">
+        <v>1062</v>
+      </c>
       <c r="F47" t="s">
         <v>725</v>
       </c>
@@ -4297,6 +5450,9 @@
       <c r="D48" t="s">
         <v>342</v>
       </c>
+      <c r="E48" t="s">
+        <v>1063</v>
+      </c>
       <c r="F48" t="s">
         <v>726</v>
       </c>
@@ -4315,6 +5471,9 @@
       <c r="D49" t="s">
         <v>343</v>
       </c>
+      <c r="E49" t="s">
+        <v>1064</v>
+      </c>
       <c r="F49" t="s">
         <v>727</v>
       </c>
@@ -4333,6 +5492,9 @@
       <c r="D50" t="s">
         <v>345</v>
       </c>
+      <c r="E50" t="s">
+        <v>1065</v>
+      </c>
       <c r="F50" t="s">
         <v>728</v>
       </c>
@@ -4351,6 +5513,9 @@
       <c r="D51" t="s">
         <v>346</v>
       </c>
+      <c r="E51" t="s">
+        <v>1066</v>
+      </c>
       <c r="F51" t="s">
         <v>729</v>
       </c>
@@ -4369,6 +5534,9 @@
       <c r="D52" t="s">
         <v>347</v>
       </c>
+      <c r="E52" t="s">
+        <v>1067</v>
+      </c>
       <c r="F52" t="s">
         <v>730</v>
       </c>
@@ -4387,6 +5555,9 @@
       <c r="D53" t="s">
         <v>348</v>
       </c>
+      <c r="E53" t="s">
+        <v>1068</v>
+      </c>
       <c r="F53" t="s">
         <v>731</v>
       </c>
@@ -4405,6 +5576,9 @@
       <c r="D54" t="s">
         <v>349</v>
       </c>
+      <c r="E54" t="s">
+        <v>1069</v>
+      </c>
       <c r="F54" t="s">
         <v>732</v>
       </c>
@@ -4423,6 +5597,9 @@
       <c r="D55" t="s">
         <v>350</v>
       </c>
+      <c r="E55" t="s">
+        <v>1070</v>
+      </c>
       <c r="F55" t="s">
         <v>733</v>
       </c>
@@ -4441,6 +5618,9 @@
       <c r="D56" t="s">
         <v>351</v>
       </c>
+      <c r="E56" t="s">
+        <v>1071</v>
+      </c>
       <c r="F56" t="s">
         <v>734</v>
       </c>
@@ -4459,6 +5639,9 @@
       <c r="D57" t="s">
         <v>352</v>
       </c>
+      <c r="E57" t="s">
+        <v>1072</v>
+      </c>
       <c r="F57" t="s">
         <v>735</v>
       </c>
@@ -4477,6 +5660,9 @@
       <c r="D58" t="s">
         <v>353</v>
       </c>
+      <c r="E58" t="s">
+        <v>1073</v>
+      </c>
       <c r="F58" t="s">
         <v>736</v>
       </c>
@@ -4495,6 +5681,9 @@
       <c r="D59" t="s">
         <v>354</v>
       </c>
+      <c r="E59" t="s">
+        <v>1074</v>
+      </c>
       <c r="F59" t="s">
         <v>737</v>
       </c>
@@ -4513,6 +5702,9 @@
       <c r="D60" t="s">
         <v>355</v>
       </c>
+      <c r="E60" t="s">
+        <v>1075</v>
+      </c>
       <c r="F60" t="s">
         <v>738</v>
       </c>
@@ -4531,6 +5723,9 @@
       <c r="D61" t="s">
         <v>356</v>
       </c>
+      <c r="E61" t="s">
+        <v>1076</v>
+      </c>
       <c r="F61" t="s">
         <v>739</v>
       </c>
@@ -4549,6 +5744,9 @@
       <c r="D62" t="s">
         <v>357</v>
       </c>
+      <c r="E62" t="s">
+        <v>1077</v>
+      </c>
       <c r="F62" t="s">
         <v>740</v>
       </c>
@@ -4567,6 +5765,9 @@
       <c r="D63" t="s">
         <v>358</v>
       </c>
+      <c r="E63" t="s">
+        <v>1078</v>
+      </c>
       <c r="F63" t="s">
         <v>741</v>
       </c>
@@ -4585,6 +5786,9 @@
       <c r="D64" t="s">
         <v>359</v>
       </c>
+      <c r="E64" t="s">
+        <v>1079</v>
+      </c>
       <c r="F64" t="s">
         <v>742</v>
       </c>
@@ -4603,6 +5807,9 @@
       <c r="D65" t="s">
         <v>360</v>
       </c>
+      <c r="E65" t="s">
+        <v>1080</v>
+      </c>
       <c r="F65" t="s">
         <v>743</v>
       </c>
@@ -4621,6 +5828,9 @@
       <c r="D66" t="s">
         <v>361</v>
       </c>
+      <c r="E66" t="s">
+        <v>1081</v>
+      </c>
       <c r="F66" t="s">
         <v>744</v>
       </c>
@@ -4639,6 +5849,9 @@
       <c r="D67" t="s">
         <v>362</v>
       </c>
+      <c r="E67" t="s">
+        <v>1082</v>
+      </c>
       <c r="F67" t="s">
         <v>745</v>
       </c>
@@ -4657,6 +5870,9 @@
       <c r="D68" t="s">
         <v>363</v>
       </c>
+      <c r="E68" t="s">
+        <v>1083</v>
+      </c>
       <c r="F68" t="s">
         <v>746</v>
       </c>
@@ -4675,6 +5891,9 @@
       <c r="D69" t="s">
         <v>364</v>
       </c>
+      <c r="E69" t="s">
+        <v>1084</v>
+      </c>
       <c r="F69" t="s">
         <v>747</v>
       </c>
@@ -4693,6 +5912,9 @@
       <c r="D70" t="s">
         <v>365</v>
       </c>
+      <c r="E70" t="s">
+        <v>1085</v>
+      </c>
       <c r="F70" t="s">
         <v>748</v>
       </c>
@@ -4711,6 +5933,9 @@
       <c r="D71" t="s">
         <v>366</v>
       </c>
+      <c r="E71" t="s">
+        <v>1086</v>
+      </c>
       <c r="F71" t="s">
         <v>749</v>
       </c>
@@ -4729,6 +5954,9 @@
       <c r="D72" t="s">
         <v>373</v>
       </c>
+      <c r="E72" t="s">
+        <v>1087</v>
+      </c>
       <c r="F72" t="s">
         <v>750</v>
       </c>
@@ -4747,6 +5975,9 @@
       <c r="D73" t="s">
         <v>374</v>
       </c>
+      <c r="E73" t="s">
+        <v>1088</v>
+      </c>
       <c r="F73" t="s">
         <v>751</v>
       </c>
@@ -4765,6 +5996,9 @@
       <c r="D74" t="s">
         <v>375</v>
       </c>
+      <c r="E74" t="s">
+        <v>1089</v>
+      </c>
       <c r="F74" t="s">
         <v>752</v>
       </c>
@@ -4783,6 +6017,9 @@
       <c r="D75" t="s">
         <v>376</v>
       </c>
+      <c r="E75" t="s">
+        <v>1090</v>
+      </c>
       <c r="F75" t="s">
         <v>753</v>
       </c>
@@ -4801,6 +6038,9 @@
       <c r="D76" t="s">
         <v>377</v>
       </c>
+      <c r="E76" t="s">
+        <v>1091</v>
+      </c>
       <c r="F76" t="s">
         <v>754</v>
       </c>
@@ -4819,6 +6059,9 @@
       <c r="D77" t="s">
         <v>367</v>
       </c>
+      <c r="E77" t="s">
+        <v>1092</v>
+      </c>
       <c r="F77" t="s">
         <v>755</v>
       </c>
@@ -4837,6 +6080,9 @@
       <c r="D78" t="s">
         <v>368</v>
       </c>
+      <c r="E78" t="s">
+        <v>1093</v>
+      </c>
       <c r="F78" t="s">
         <v>756</v>
       </c>
@@ -4855,6 +6101,9 @@
       <c r="D79" t="s">
         <v>372</v>
       </c>
+      <c r="E79" t="s">
+        <v>1094</v>
+      </c>
       <c r="F79" t="s">
         <v>757</v>
       </c>
@@ -4873,6 +6122,9 @@
       <c r="D80" t="s">
         <v>369</v>
       </c>
+      <c r="E80" t="s">
+        <v>1095</v>
+      </c>
       <c r="F80" t="s">
         <v>758</v>
       </c>
@@ -4891,6 +6143,9 @@
       <c r="D81" t="s">
         <v>370</v>
       </c>
+      <c r="E81" t="s">
+        <v>1096</v>
+      </c>
       <c r="F81" t="s">
         <v>759</v>
       </c>
@@ -4909,6 +6164,9 @@
       <c r="D82" t="s">
         <v>371</v>
       </c>
+      <c r="E82" t="s">
+        <v>1097</v>
+      </c>
       <c r="F82" t="s">
         <v>760</v>
       </c>
@@ -4927,6 +6185,9 @@
       <c r="D83" t="s">
         <v>422</v>
       </c>
+      <c r="E83" t="s">
+        <v>1098</v>
+      </c>
       <c r="F83" t="s">
         <v>761</v>
       </c>
@@ -4945,6 +6206,9 @@
       <c r="D84" t="s">
         <v>423</v>
       </c>
+      <c r="E84" t="s">
+        <v>1099</v>
+      </c>
       <c r="F84" t="s">
         <v>762</v>
       </c>
@@ -4963,6 +6227,9 @@
       <c r="D85" t="s">
         <v>424</v>
       </c>
+      <c r="E85" t="s">
+        <v>1100</v>
+      </c>
       <c r="F85" t="s">
         <v>763</v>
       </c>
@@ -4981,6 +6248,9 @@
       <c r="D86" t="s">
         <v>425</v>
       </c>
+      <c r="E86" t="s">
+        <v>1101</v>
+      </c>
       <c r="F86" t="s">
         <v>764</v>
       </c>
@@ -4999,6 +6269,9 @@
       <c r="D87" t="s">
         <v>426</v>
       </c>
+      <c r="E87" t="s">
+        <v>1102</v>
+      </c>
       <c r="F87" t="s">
         <v>765</v>
       </c>
@@ -5017,6 +6290,9 @@
       <c r="D88" t="s">
         <v>427</v>
       </c>
+      <c r="E88" t="s">
+        <v>1103</v>
+      </c>
       <c r="F88" t="s">
         <v>766</v>
       </c>
@@ -5035,6 +6311,9 @@
       <c r="D89" t="s">
         <v>428</v>
       </c>
+      <c r="E89" t="s">
+        <v>1104</v>
+      </c>
       <c r="F89" t="s">
         <v>767</v>
       </c>
@@ -5053,6 +6332,9 @@
       <c r="D90" t="s">
         <v>429</v>
       </c>
+      <c r="E90" t="s">
+        <v>1105</v>
+      </c>
       <c r="F90" t="s">
         <v>768</v>
       </c>
@@ -5071,6 +6353,9 @@
       <c r="D91" t="s">
         <v>430</v>
       </c>
+      <c r="E91" t="s">
+        <v>1106</v>
+      </c>
       <c r="F91" t="s">
         <v>769</v>
       </c>
@@ -5089,6 +6374,9 @@
       <c r="D92" t="s">
         <v>431</v>
       </c>
+      <c r="E92" t="s">
+        <v>1107</v>
+      </c>
       <c r="F92" t="s">
         <v>770</v>
       </c>
@@ -5107,6 +6395,9 @@
       <c r="D93" t="s">
         <v>432</v>
       </c>
+      <c r="E93" t="s">
+        <v>1108</v>
+      </c>
       <c r="F93" t="s">
         <v>771</v>
       </c>
@@ -5125,6 +6416,9 @@
       <c r="D94" t="s">
         <v>433</v>
       </c>
+      <c r="E94" t="s">
+        <v>1109</v>
+      </c>
       <c r="F94" t="s">
         <v>772</v>
       </c>
@@ -5143,6 +6437,9 @@
       <c r="D95" t="s">
         <v>434</v>
       </c>
+      <c r="E95" t="s">
+        <v>1110</v>
+      </c>
       <c r="F95" t="s">
         <v>773</v>
       </c>
@@ -5161,6 +6458,9 @@
       <c r="D96" t="s">
         <v>435</v>
       </c>
+      <c r="E96" t="s">
+        <v>1111</v>
+      </c>
       <c r="F96" t="s">
         <v>774</v>
       </c>
@@ -5179,6 +6479,9 @@
       <c r="D97" t="s">
         <v>436</v>
       </c>
+      <c r="E97" t="s">
+        <v>1112</v>
+      </c>
       <c r="F97" t="s">
         <v>775</v>
       </c>
@@ -5197,6 +6500,9 @@
       <c r="D98" t="s">
         <v>437</v>
       </c>
+      <c r="E98" t="s">
+        <v>1113</v>
+      </c>
       <c r="F98" t="s">
         <v>776</v>
       </c>
@@ -5215,6 +6521,9 @@
       <c r="D99" t="s">
         <v>438</v>
       </c>
+      <c r="E99" t="s">
+        <v>1114</v>
+      </c>
       <c r="F99" t="s">
         <v>777</v>
       </c>
@@ -5233,6 +6542,9 @@
       <c r="D100" t="s">
         <v>439</v>
       </c>
+      <c r="E100" t="s">
+        <v>1115</v>
+      </c>
       <c r="F100" t="s">
         <v>778</v>
       </c>
@@ -5251,6 +6563,9 @@
       <c r="D101" t="s">
         <v>440</v>
       </c>
+      <c r="E101" t="s">
+        <v>1116</v>
+      </c>
       <c r="F101" t="s">
         <v>779</v>
       </c>
@@ -5269,6 +6584,9 @@
       <c r="D102" t="s">
         <v>441</v>
       </c>
+      <c r="E102" t="s">
+        <v>1117</v>
+      </c>
       <c r="F102" t="s">
         <v>780</v>
       </c>
@@ -5287,6 +6605,9 @@
       <c r="D103" t="s">
         <v>442</v>
       </c>
+      <c r="E103" t="s">
+        <v>1118</v>
+      </c>
       <c r="F103" t="s">
         <v>781</v>
       </c>
@@ -5305,6 +6626,9 @@
       <c r="D104" t="s">
         <v>443</v>
       </c>
+      <c r="E104" t="s">
+        <v>1119</v>
+      </c>
       <c r="F104" t="s">
         <v>782</v>
       </c>
@@ -5323,6 +6647,9 @@
       <c r="D105" t="s">
         <v>444</v>
       </c>
+      <c r="E105" t="s">
+        <v>1120</v>
+      </c>
       <c r="F105" t="s">
         <v>783</v>
       </c>
@@ -5341,6 +6668,9 @@
       <c r="D106" t="s">
         <v>445</v>
       </c>
+      <c r="E106" t="s">
+        <v>1121</v>
+      </c>
       <c r="F106" t="s">
         <v>784</v>
       </c>
@@ -5359,6 +6689,9 @@
       <c r="D107" t="s">
         <v>446</v>
       </c>
+      <c r="E107" t="s">
+        <v>1122</v>
+      </c>
       <c r="F107" t="s">
         <v>785</v>
       </c>
@@ -5377,6 +6710,9 @@
       <c r="D108" t="s">
         <v>447</v>
       </c>
+      <c r="E108" t="s">
+        <v>1123</v>
+      </c>
       <c r="F108" t="s">
         <v>786</v>
       </c>
@@ -5395,6 +6731,9 @@
       <c r="D109" t="s">
         <v>448</v>
       </c>
+      <c r="E109" t="s">
+        <v>1124</v>
+      </c>
       <c r="F109" t="s">
         <v>787</v>
       </c>
@@ -5413,6 +6752,9 @@
       <c r="D110" t="s">
         <v>449</v>
       </c>
+      <c r="E110" t="s">
+        <v>1125</v>
+      </c>
       <c r="F110" t="s">
         <v>788</v>
       </c>
@@ -5431,6 +6773,9 @@
       <c r="D111" t="s">
         <v>450</v>
       </c>
+      <c r="E111" t="s">
+        <v>1126</v>
+      </c>
       <c r="F111" t="s">
         <v>789</v>
       </c>
@@ -5449,6 +6794,9 @@
       <c r="D112" t="s">
         <v>451</v>
       </c>
+      <c r="E112" t="s">
+        <v>1127</v>
+      </c>
       <c r="F112" t="s">
         <v>790</v>
       </c>
@@ -5467,6 +6815,9 @@
       <c r="D113" t="s">
         <v>452</v>
       </c>
+      <c r="E113" t="s">
+        <v>1128</v>
+      </c>
       <c r="F113" t="s">
         <v>791</v>
       </c>
@@ -5485,6 +6836,9 @@
       <c r="D114" t="s">
         <v>453</v>
       </c>
+      <c r="E114" t="s">
+        <v>1129</v>
+      </c>
       <c r="F114" t="s">
         <v>792</v>
       </c>
@@ -5503,6 +6857,9 @@
       <c r="D115" t="s">
         <v>454</v>
       </c>
+      <c r="E115" t="s">
+        <v>1130</v>
+      </c>
       <c r="F115" t="s">
         <v>793</v>
       </c>
@@ -5521,6 +6878,9 @@
       <c r="D116" t="s">
         <v>455</v>
       </c>
+      <c r="E116" t="s">
+        <v>1131</v>
+      </c>
       <c r="F116" t="s">
         <v>794</v>
       </c>
@@ -5539,6 +6899,9 @@
       <c r="D117" t="s">
         <v>456</v>
       </c>
+      <c r="E117" t="s">
+        <v>1132</v>
+      </c>
       <c r="F117" t="s">
         <v>795</v>
       </c>
@@ -5557,6 +6920,9 @@
       <c r="D118" t="s">
         <v>457</v>
       </c>
+      <c r="E118" t="s">
+        <v>1133</v>
+      </c>
       <c r="F118" t="s">
         <v>796</v>
       </c>
@@ -5575,6 +6941,9 @@
       <c r="D119" t="s">
         <v>458</v>
       </c>
+      <c r="E119" t="s">
+        <v>1134</v>
+      </c>
       <c r="F119" t="s">
         <v>797</v>
       </c>
@@ -5593,6 +6962,9 @@
       <c r="D120" t="s">
         <v>459</v>
       </c>
+      <c r="E120" t="s">
+        <v>1135</v>
+      </c>
       <c r="F120" t="s">
         <v>798</v>
       </c>
@@ -5611,6 +6983,9 @@
       <c r="D121" t="s">
         <v>460</v>
       </c>
+      <c r="E121" t="s">
+        <v>1136</v>
+      </c>
       <c r="F121" t="s">
         <v>799</v>
       </c>
@@ -5629,6 +7004,9 @@
       <c r="D122" t="s">
         <v>461</v>
       </c>
+      <c r="E122" t="s">
+        <v>1137</v>
+      </c>
       <c r="F122" t="s">
         <v>800</v>
       </c>
@@ -5647,6 +7025,9 @@
       <c r="D123" t="s">
         <v>462</v>
       </c>
+      <c r="E123" t="s">
+        <v>1138</v>
+      </c>
       <c r="F123" t="s">
         <v>801</v>
       </c>
@@ -5665,6 +7046,9 @@
       <c r="D124" t="s">
         <v>463</v>
       </c>
+      <c r="E124" t="s">
+        <v>1139</v>
+      </c>
       <c r="F124" t="s">
         <v>802</v>
       </c>
@@ -5683,6 +7067,9 @@
       <c r="D125" t="s">
         <v>464</v>
       </c>
+      <c r="E125" t="s">
+        <v>1140</v>
+      </c>
       <c r="F125" t="s">
         <v>803</v>
       </c>
@@ -5701,6 +7088,9 @@
       <c r="D126" t="s">
         <v>465</v>
       </c>
+      <c r="E126" t="s">
+        <v>1141</v>
+      </c>
       <c r="F126" t="s">
         <v>804</v>
       </c>
@@ -5719,6 +7109,9 @@
       <c r="D127" t="s">
         <v>467</v>
       </c>
+      <c r="E127" t="s">
+        <v>1142</v>
+      </c>
       <c r="F127" t="s">
         <v>805</v>
       </c>
@@ -5737,6 +7130,9 @@
       <c r="D128" t="s">
         <v>468</v>
       </c>
+      <c r="E128" t="s">
+        <v>1143</v>
+      </c>
       <c r="F128" t="s">
         <v>806</v>
       </c>
@@ -5755,6 +7151,9 @@
       <c r="D129" t="s">
         <v>469</v>
       </c>
+      <c r="E129" t="s">
+        <v>1144</v>
+      </c>
       <c r="F129" t="s">
         <v>807</v>
       </c>
@@ -5773,6 +7172,9 @@
       <c r="D130" t="s">
         <v>470</v>
       </c>
+      <c r="E130" t="s">
+        <v>1145</v>
+      </c>
       <c r="F130" t="s">
         <v>808</v>
       </c>
@@ -5791,6 +7193,9 @@
       <c r="D131" t="s">
         <v>471</v>
       </c>
+      <c r="E131" t="s">
+        <v>1146</v>
+      </c>
       <c r="F131" t="s">
         <v>809</v>
       </c>
@@ -5809,6 +7214,9 @@
       <c r="D132" t="s">
         <v>472</v>
       </c>
+      <c r="E132" t="s">
+        <v>1147</v>
+      </c>
       <c r="F132" t="s">
         <v>810</v>
       </c>
@@ -5827,6 +7235,9 @@
       <c r="D133" t="s">
         <v>473</v>
       </c>
+      <c r="E133" t="s">
+        <v>1148</v>
+      </c>
       <c r="F133" t="s">
         <v>811</v>
       </c>
@@ -5845,6 +7256,9 @@
       <c r="D134" t="s">
         <v>474</v>
       </c>
+      <c r="E134" t="s">
+        <v>1149</v>
+      </c>
       <c r="F134" t="s">
         <v>812</v>
       </c>
@@ -5863,6 +7277,9 @@
       <c r="D135" t="s">
         <v>475</v>
       </c>
+      <c r="E135" t="s">
+        <v>1150</v>
+      </c>
       <c r="F135" t="s">
         <v>813</v>
       </c>
@@ -5881,6 +7298,9 @@
       <c r="D136" t="s">
         <v>476</v>
       </c>
+      <c r="E136" t="s">
+        <v>1151</v>
+      </c>
       <c r="F136" t="s">
         <v>814</v>
       </c>
@@ -5899,6 +7319,9 @@
       <c r="D137" t="s">
         <v>477</v>
       </c>
+      <c r="E137" t="s">
+        <v>1152</v>
+      </c>
       <c r="F137" t="s">
         <v>815</v>
       </c>
@@ -5917,6 +7340,9 @@
       <c r="D138" t="s">
         <v>478</v>
       </c>
+      <c r="E138" t="s">
+        <v>1153</v>
+      </c>
       <c r="F138" t="s">
         <v>816</v>
       </c>
@@ -5935,6 +7361,9 @@
       <c r="D139" t="s">
         <v>479</v>
       </c>
+      <c r="E139" t="s">
+        <v>1154</v>
+      </c>
       <c r="F139" t="s">
         <v>817</v>
       </c>
@@ -5953,6 +7382,9 @@
       <c r="D140" t="s">
         <v>480</v>
       </c>
+      <c r="E140" t="s">
+        <v>1155</v>
+      </c>
       <c r="F140" t="s">
         <v>818</v>
       </c>
@@ -5971,6 +7403,9 @@
       <c r="D141" t="s">
         <v>481</v>
       </c>
+      <c r="E141" t="s">
+        <v>1156</v>
+      </c>
       <c r="F141" t="s">
         <v>819</v>
       </c>
@@ -5989,6 +7424,9 @@
       <c r="D142" t="s">
         <v>482</v>
       </c>
+      <c r="E142" t="s">
+        <v>1157</v>
+      </c>
       <c r="F142" t="s">
         <v>820</v>
       </c>
@@ -6007,6 +7445,9 @@
       <c r="D143" t="s">
         <v>483</v>
       </c>
+      <c r="E143" t="s">
+        <v>1158</v>
+      </c>
       <c r="F143" t="s">
         <v>821</v>
       </c>
@@ -6025,6 +7466,9 @@
       <c r="D144" t="s">
         <v>484</v>
       </c>
+      <c r="E144" t="s">
+        <v>1159</v>
+      </c>
       <c r="F144" t="s">
         <v>822</v>
       </c>
@@ -6043,6 +7487,9 @@
       <c r="D145" t="s">
         <v>485</v>
       </c>
+      <c r="E145" t="s">
+        <v>1160</v>
+      </c>
       <c r="F145" t="s">
         <v>823</v>
       </c>
@@ -6061,6 +7508,9 @@
       <c r="D146" t="s">
         <v>486</v>
       </c>
+      <c r="E146" t="s">
+        <v>1161</v>
+      </c>
       <c r="F146" t="s">
         <v>824</v>
       </c>
@@ -6079,6 +7529,9 @@
       <c r="D147" t="s">
         <v>487</v>
       </c>
+      <c r="E147" t="s">
+        <v>1162</v>
+      </c>
       <c r="F147" t="s">
         <v>825</v>
       </c>
@@ -6097,6 +7550,9 @@
       <c r="D148" t="s">
         <v>488</v>
       </c>
+      <c r="E148" t="s">
+        <v>1163</v>
+      </c>
       <c r="F148" t="s">
         <v>826</v>
       </c>
@@ -6115,6 +7571,9 @@
       <c r="D149" t="s">
         <v>489</v>
       </c>
+      <c r="E149" t="s">
+        <v>1164</v>
+      </c>
       <c r="F149" t="s">
         <v>827</v>
       </c>
@@ -6133,6 +7592,9 @@
       <c r="D150" t="s">
         <v>490</v>
       </c>
+      <c r="E150" t="s">
+        <v>1165</v>
+      </c>
       <c r="F150" t="s">
         <v>828</v>
       </c>
@@ -6151,6 +7613,9 @@
       <c r="D151" t="s">
         <v>491</v>
       </c>
+      <c r="E151" t="s">
+        <v>1166</v>
+      </c>
       <c r="F151" t="s">
         <v>829</v>
       </c>
@@ -6169,6 +7634,9 @@
       <c r="D152" t="s">
         <v>492</v>
       </c>
+      <c r="E152" t="s">
+        <v>1167</v>
+      </c>
       <c r="F152" t="s">
         <v>830</v>
       </c>
@@ -6187,6 +7655,9 @@
       <c r="D153" t="s">
         <v>493</v>
       </c>
+      <c r="E153" t="s">
+        <v>1168</v>
+      </c>
       <c r="F153" t="s">
         <v>831</v>
       </c>
@@ -6205,6 +7676,9 @@
       <c r="D154" t="s">
         <v>494</v>
       </c>
+      <c r="E154" t="s">
+        <v>1169</v>
+      </c>
       <c r="F154" t="s">
         <v>832</v>
       </c>
@@ -6223,6 +7697,9 @@
       <c r="D155" t="s">
         <v>495</v>
       </c>
+      <c r="E155" t="s">
+        <v>1170</v>
+      </c>
       <c r="F155" t="s">
         <v>833</v>
       </c>
@@ -6241,6 +7718,9 @@
       <c r="D156" t="s">
         <v>496</v>
       </c>
+      <c r="E156" t="s">
+        <v>1171</v>
+      </c>
       <c r="F156" t="s">
         <v>834</v>
       </c>
@@ -6259,6 +7739,9 @@
       <c r="D157" t="s">
         <v>497</v>
       </c>
+      <c r="E157" t="s">
+        <v>1172</v>
+      </c>
       <c r="F157" t="s">
         <v>835</v>
       </c>
@@ -6277,6 +7760,9 @@
       <c r="D158" t="s">
         <v>498</v>
       </c>
+      <c r="E158" t="s">
+        <v>1173</v>
+      </c>
       <c r="F158" t="s">
         <v>836</v>
       </c>
@@ -6295,6 +7781,9 @@
       <c r="D159" t="s">
         <v>499</v>
       </c>
+      <c r="E159" t="s">
+        <v>1174</v>
+      </c>
       <c r="F159" t="s">
         <v>837</v>
       </c>
@@ -6313,6 +7802,9 @@
       <c r="D160" t="s">
         <v>500</v>
       </c>
+      <c r="E160" t="s">
+        <v>1175</v>
+      </c>
       <c r="F160" t="s">
         <v>838</v>
       </c>
@@ -6331,6 +7823,9 @@
       <c r="D161" t="s">
         <v>501</v>
       </c>
+      <c r="E161" t="s">
+        <v>1176</v>
+      </c>
       <c r="F161" t="s">
         <v>839</v>
       </c>
@@ -6349,6 +7844,9 @@
       <c r="D162" t="s">
         <v>502</v>
       </c>
+      <c r="E162" t="s">
+        <v>1177</v>
+      </c>
       <c r="F162" t="s">
         <v>840</v>
       </c>
@@ -6367,6 +7865,9 @@
       <c r="D163" t="s">
         <v>503</v>
       </c>
+      <c r="E163" t="s">
+        <v>1178</v>
+      </c>
       <c r="F163" t="s">
         <v>841</v>
       </c>
@@ -6385,6 +7886,9 @@
       <c r="D164" t="s">
         <v>504</v>
       </c>
+      <c r="E164" t="s">
+        <v>1179</v>
+      </c>
       <c r="F164" t="s">
         <v>842</v>
       </c>
@@ -6403,6 +7907,9 @@
       <c r="D165" t="s">
         <v>505</v>
       </c>
+      <c r="E165" t="s">
+        <v>1180</v>
+      </c>
       <c r="F165" t="s">
         <v>843</v>
       </c>
@@ -6421,6 +7928,9 @@
       <c r="D166" t="s">
         <v>506</v>
       </c>
+      <c r="E166" t="s">
+        <v>1181</v>
+      </c>
       <c r="F166" t="s">
         <v>844</v>
       </c>
@@ -6439,6 +7949,9 @@
       <c r="D167" t="s">
         <v>507</v>
       </c>
+      <c r="E167" t="s">
+        <v>1182</v>
+      </c>
       <c r="F167" t="s">
         <v>845</v>
       </c>
@@ -6457,6 +7970,9 @@
       <c r="D168" t="s">
         <v>508</v>
       </c>
+      <c r="E168" t="s">
+        <v>1183</v>
+      </c>
       <c r="F168" t="s">
         <v>846</v>
       </c>
@@ -6475,6 +7991,9 @@
       <c r="D169" t="s">
         <v>509</v>
       </c>
+      <c r="E169" t="s">
+        <v>1184</v>
+      </c>
       <c r="F169" t="s">
         <v>847</v>
       </c>
@@ -6493,6 +8012,9 @@
       <c r="D170" t="s">
         <v>510</v>
       </c>
+      <c r="E170" t="s">
+        <v>1185</v>
+      </c>
       <c r="F170" t="s">
         <v>848</v>
       </c>
@@ -6511,6 +8033,9 @@
       <c r="D171" t="s">
         <v>511</v>
       </c>
+      <c r="E171" t="s">
+        <v>1186</v>
+      </c>
       <c r="F171" t="s">
         <v>849</v>
       </c>
@@ -6529,6 +8054,9 @@
       <c r="D172" t="s">
         <v>512</v>
       </c>
+      <c r="E172" t="s">
+        <v>1187</v>
+      </c>
       <c r="F172" t="s">
         <v>850</v>
       </c>
@@ -6547,6 +8075,9 @@
       <c r="D173" t="s">
         <v>513</v>
       </c>
+      <c r="E173" t="s">
+        <v>1188</v>
+      </c>
       <c r="F173" t="s">
         <v>851</v>
       </c>
@@ -6565,6 +8096,9 @@
       <c r="D174" t="s">
         <v>514</v>
       </c>
+      <c r="E174" t="s">
+        <v>1189</v>
+      </c>
       <c r="F174" t="s">
         <v>852</v>
       </c>
@@ -6583,6 +8117,9 @@
       <c r="D175" t="s">
         <v>515</v>
       </c>
+      <c r="E175" t="s">
+        <v>1190</v>
+      </c>
       <c r="F175" t="s">
         <v>853</v>
       </c>
@@ -6601,6 +8138,9 @@
       <c r="D176" t="s">
         <v>516</v>
       </c>
+      <c r="E176" t="s">
+        <v>1191</v>
+      </c>
       <c r="F176" t="s">
         <v>854</v>
       </c>
@@ -6619,6 +8159,9 @@
       <c r="D177" t="s">
         <v>517</v>
       </c>
+      <c r="E177" t="s">
+        <v>1192</v>
+      </c>
       <c r="F177" t="s">
         <v>855</v>
       </c>
@@ -6637,6 +8180,9 @@
       <c r="D178" t="s">
         <v>518</v>
       </c>
+      <c r="E178" t="s">
+        <v>1193</v>
+      </c>
       <c r="F178" t="s">
         <v>856</v>
       </c>
@@ -6655,6 +8201,9 @@
       <c r="D179" t="s">
         <v>519</v>
       </c>
+      <c r="E179" t="s">
+        <v>1194</v>
+      </c>
       <c r="F179" t="s">
         <v>857</v>
       </c>
@@ -6673,6 +8222,9 @@
       <c r="D180" t="s">
         <v>520</v>
       </c>
+      <c r="E180" t="s">
+        <v>1195</v>
+      </c>
       <c r="F180" t="s">
         <v>858</v>
       </c>
@@ -6691,6 +8243,9 @@
       <c r="D181" t="s">
         <v>521</v>
       </c>
+      <c r="E181" t="s">
+        <v>1196</v>
+      </c>
       <c r="F181" t="s">
         <v>859</v>
       </c>
@@ -6709,6 +8264,9 @@
       <c r="D182" t="s">
         <v>522</v>
       </c>
+      <c r="E182" t="s">
+        <v>1197</v>
+      </c>
       <c r="F182" t="s">
         <v>860</v>
       </c>
@@ -6727,6 +8285,9 @@
       <c r="D183" t="s">
         <v>523</v>
       </c>
+      <c r="E183" t="s">
+        <v>1198</v>
+      </c>
       <c r="F183" t="s">
         <v>861</v>
       </c>
@@ -6745,6 +8306,9 @@
       <c r="D184" t="s">
         <v>524</v>
       </c>
+      <c r="E184" t="s">
+        <v>1199</v>
+      </c>
       <c r="F184" t="s">
         <v>862</v>
       </c>
@@ -6763,6 +8327,9 @@
       <c r="D185" t="s">
         <v>525</v>
       </c>
+      <c r="E185" t="s">
+        <v>1200</v>
+      </c>
       <c r="F185" t="s">
         <v>863</v>
       </c>
@@ -6781,6 +8348,9 @@
       <c r="D186" t="s">
         <v>526</v>
       </c>
+      <c r="E186" t="s">
+        <v>1201</v>
+      </c>
       <c r="F186" t="s">
         <v>864</v>
       </c>
@@ -6799,6 +8369,9 @@
       <c r="D187" t="s">
         <v>527</v>
       </c>
+      <c r="E187" t="s">
+        <v>1202</v>
+      </c>
       <c r="F187" t="s">
         <v>865</v>
       </c>
@@ -6817,6 +8390,9 @@
       <c r="D188" t="s">
         <v>528</v>
       </c>
+      <c r="E188" t="s">
+        <v>1203</v>
+      </c>
       <c r="F188" t="s">
         <v>866</v>
       </c>
@@ -6835,6 +8411,9 @@
       <c r="D189" t="s">
         <v>529</v>
       </c>
+      <c r="E189" t="s">
+        <v>1204</v>
+      </c>
       <c r="F189" t="s">
         <v>867</v>
       </c>
@@ -6853,6 +8432,9 @@
       <c r="D190" t="s">
         <v>530</v>
       </c>
+      <c r="E190" t="s">
+        <v>1205</v>
+      </c>
       <c r="F190" t="s">
         <v>868</v>
       </c>
@@ -6871,6 +8453,9 @@
       <c r="D191" t="s">
         <v>531</v>
       </c>
+      <c r="E191" t="s">
+        <v>1206</v>
+      </c>
       <c r="F191" t="s">
         <v>869</v>
       </c>
@@ -6889,6 +8474,9 @@
       <c r="D192" t="s">
         <v>532</v>
       </c>
+      <c r="E192" t="s">
+        <v>1207</v>
+      </c>
       <c r="F192" t="s">
         <v>870</v>
       </c>
@@ -6907,6 +8495,9 @@
       <c r="D193" t="s">
         <v>533</v>
       </c>
+      <c r="E193" t="s">
+        <v>1208</v>
+      </c>
       <c r="F193" t="s">
         <v>871</v>
       </c>
@@ -6925,6 +8516,9 @@
       <c r="D194" t="s">
         <v>534</v>
       </c>
+      <c r="E194" t="s">
+        <v>1209</v>
+      </c>
       <c r="F194" t="s">
         <v>872</v>
       </c>
@@ -6943,6 +8537,9 @@
       <c r="D195" t="s">
         <v>535</v>
       </c>
+      <c r="E195" t="s">
+        <v>1210</v>
+      </c>
       <c r="F195" t="s">
         <v>873</v>
       </c>
@@ -6961,6 +8558,9 @@
       <c r="D196" t="s">
         <v>536</v>
       </c>
+      <c r="E196" t="s">
+        <v>1211</v>
+      </c>
       <c r="F196" t="s">
         <v>874</v>
       </c>
@@ -6979,6 +8579,9 @@
       <c r="D197" t="s">
         <v>537</v>
       </c>
+      <c r="E197" t="s">
+        <v>1212</v>
+      </c>
       <c r="F197" t="s">
         <v>875</v>
       </c>
@@ -6997,6 +8600,9 @@
       <c r="D198" t="s">
         <v>538</v>
       </c>
+      <c r="E198" t="s">
+        <v>1213</v>
+      </c>
       <c r="F198" t="s">
         <v>876</v>
       </c>
@@ -7015,6 +8621,9 @@
       <c r="D199" t="s">
         <v>539</v>
       </c>
+      <c r="E199" t="s">
+        <v>1214</v>
+      </c>
       <c r="F199" t="s">
         <v>877</v>
       </c>
@@ -7033,6 +8642,9 @@
       <c r="D200" t="s">
         <v>540</v>
       </c>
+      <c r="E200" t="s">
+        <v>1215</v>
+      </c>
       <c r="F200" t="s">
         <v>878</v>
       </c>
@@ -7051,6 +8663,9 @@
       <c r="D201" t="s">
         <v>541</v>
       </c>
+      <c r="E201" t="s">
+        <v>1216</v>
+      </c>
       <c r="F201" t="s">
         <v>879</v>
       </c>
@@ -7069,6 +8684,9 @@
       <c r="D202" t="s">
         <v>542</v>
       </c>
+      <c r="E202" t="s">
+        <v>1217</v>
+      </c>
       <c r="F202" t="s">
         <v>880</v>
       </c>
@@ -7087,6 +8705,9 @@
       <c r="D203" t="s">
         <v>543</v>
       </c>
+      <c r="E203" t="s">
+        <v>1218</v>
+      </c>
       <c r="F203" t="s">
         <v>881</v>
       </c>
@@ -7105,6 +8726,9 @@
       <c r="D204" t="s">
         <v>544</v>
       </c>
+      <c r="E204" t="s">
+        <v>1219</v>
+      </c>
       <c r="F204" t="s">
         <v>882</v>
       </c>
@@ -7123,6 +8747,9 @@
       <c r="D205" t="s">
         <v>545</v>
       </c>
+      <c r="E205" t="s">
+        <v>1220</v>
+      </c>
       <c r="F205" t="s">
         <v>883</v>
       </c>
@@ -7141,6 +8768,9 @@
       <c r="D206" t="s">
         <v>546</v>
       </c>
+      <c r="E206" t="s">
+        <v>1221</v>
+      </c>
       <c r="F206" t="s">
         <v>884</v>
       </c>
@@ -7159,6 +8789,9 @@
       <c r="D207" t="s">
         <v>547</v>
       </c>
+      <c r="E207" t="s">
+        <v>1222</v>
+      </c>
       <c r="F207" t="s">
         <v>885</v>
       </c>
@@ -7177,6 +8810,9 @@
       <c r="D208" t="s">
         <v>548</v>
       </c>
+      <c r="E208" t="s">
+        <v>1223</v>
+      </c>
       <c r="F208" t="s">
         <v>886</v>
       </c>
@@ -7195,6 +8831,9 @@
       <c r="D209" t="s">
         <v>549</v>
       </c>
+      <c r="E209" t="s">
+        <v>1224</v>
+      </c>
       <c r="F209" t="s">
         <v>887</v>
       </c>
@@ -7213,6 +8852,9 @@
       <c r="D210" t="s">
         <v>550</v>
       </c>
+      <c r="E210" t="s">
+        <v>1225</v>
+      </c>
       <c r="F210" t="s">
         <v>888</v>
       </c>
@@ -7231,6 +8873,9 @@
       <c r="D211" t="s">
         <v>551</v>
       </c>
+      <c r="E211" t="s">
+        <v>1226</v>
+      </c>
       <c r="F211" t="s">
         <v>889</v>
       </c>
@@ -7249,6 +8894,9 @@
       <c r="D212" t="s">
         <v>552</v>
       </c>
+      <c r="E212" t="s">
+        <v>1227</v>
+      </c>
       <c r="F212" t="s">
         <v>890</v>
       </c>
@@ -7267,6 +8915,9 @@
       <c r="D213" t="s">
         <v>553</v>
       </c>
+      <c r="E213" t="s">
+        <v>1228</v>
+      </c>
       <c r="F213" t="s">
         <v>891</v>
       </c>
@@ -7285,6 +8936,9 @@
       <c r="D214" t="s">
         <v>554</v>
       </c>
+      <c r="E214" t="s">
+        <v>1229</v>
+      </c>
       <c r="F214" t="s">
         <v>892</v>
       </c>
@@ -7303,6 +8957,9 @@
       <c r="D215" t="s">
         <v>555</v>
       </c>
+      <c r="E215" t="s">
+        <v>1230</v>
+      </c>
       <c r="F215" t="s">
         <v>893</v>
       </c>
@@ -7321,6 +8978,9 @@
       <c r="D216" t="s">
         <v>558</v>
       </c>
+      <c r="E216" t="s">
+        <v>1231</v>
+      </c>
       <c r="F216" t="s">
         <v>894</v>
       </c>
@@ -7339,6 +8999,9 @@
       <c r="D217" t="s">
         <v>559</v>
       </c>
+      <c r="E217" t="s">
+        <v>1232</v>
+      </c>
       <c r="F217" t="s">
         <v>895</v>
       </c>
@@ -7357,6 +9020,9 @@
       <c r="D218" t="s">
         <v>560</v>
       </c>
+      <c r="E218" t="s">
+        <v>1233</v>
+      </c>
       <c r="F218" t="s">
         <v>896</v>
       </c>
@@ -7375,6 +9041,9 @@
       <c r="D219" t="s">
         <v>600</v>
       </c>
+      <c r="E219" t="s">
+        <v>1234</v>
+      </c>
       <c r="F219" t="s">
         <v>897</v>
       </c>
@@ -7393,6 +9062,9 @@
       <c r="D220" t="s">
         <v>601</v>
       </c>
+      <c r="E220" t="s">
+        <v>1235</v>
+      </c>
       <c r="F220" t="s">
         <v>898</v>
       </c>
@@ -7411,6 +9083,9 @@
       <c r="D221" t="s">
         <v>602</v>
       </c>
+      <c r="E221" t="s">
+        <v>1236</v>
+      </c>
       <c r="F221" t="s">
         <v>899</v>
       </c>
@@ -7429,6 +9104,9 @@
       <c r="D222" t="s">
         <v>603</v>
       </c>
+      <c r="E222" t="s">
+        <v>1237</v>
+      </c>
       <c r="F222" t="s">
         <v>900</v>
       </c>
@@ -7447,6 +9125,9 @@
       <c r="D223" t="s">
         <v>604</v>
       </c>
+      <c r="E223" t="s">
+        <v>1238</v>
+      </c>
       <c r="F223" t="s">
         <v>901</v>
       </c>
@@ -7465,6 +9146,9 @@
       <c r="D224" t="s">
         <v>605</v>
       </c>
+      <c r="E224" t="s">
+        <v>1239</v>
+      </c>
       <c r="F224" t="s">
         <v>902</v>
       </c>
@@ -7483,6 +9167,9 @@
       <c r="D225" t="s">
         <v>606</v>
       </c>
+      <c r="E225" t="s">
+        <v>1240</v>
+      </c>
       <c r="F225" t="s">
         <v>903</v>
       </c>
@@ -7501,6 +9188,9 @@
       <c r="D226" t="s">
         <v>607</v>
       </c>
+      <c r="E226" t="s">
+        <v>1241</v>
+      </c>
       <c r="F226" t="s">
         <v>904</v>
       </c>
@@ -7519,6 +9209,9 @@
       <c r="D227" t="s">
         <v>608</v>
       </c>
+      <c r="E227" t="s">
+        <v>1242</v>
+      </c>
       <c r="F227" t="s">
         <v>905</v>
       </c>
@@ -7537,6 +9230,9 @@
       <c r="D228" t="s">
         <v>609</v>
       </c>
+      <c r="E228" t="s">
+        <v>1243</v>
+      </c>
       <c r="F228" t="s">
         <v>906</v>
       </c>
@@ -7555,6 +9251,9 @@
       <c r="D229" t="s">
         <v>610</v>
       </c>
+      <c r="E229" t="s">
+        <v>1244</v>
+      </c>
       <c r="F229" t="s">
         <v>907</v>
       </c>
@@ -7573,6 +9272,9 @@
       <c r="D230" t="s">
         <v>611</v>
       </c>
+      <c r="E230" t="s">
+        <v>1245</v>
+      </c>
       <c r="F230" t="s">
         <v>908</v>
       </c>
@@ -7591,6 +9293,9 @@
       <c r="D231" t="s">
         <v>674</v>
       </c>
+      <c r="E231" t="s">
+        <v>1246</v>
+      </c>
       <c r="F231" t="s">
         <v>909</v>
       </c>
@@ -7609,6 +9314,9 @@
       <c r="D232" t="s">
         <v>675</v>
       </c>
+      <c r="E232" t="s">
+        <v>1247</v>
+      </c>
       <c r="F232" t="s">
         <v>910</v>
       </c>
@@ -7627,6 +9335,9 @@
       <c r="D233" t="s">
         <v>676</v>
       </c>
+      <c r="E233" t="s">
+        <v>1248</v>
+      </c>
       <c r="F233" t="s">
         <v>911</v>
       </c>
@@ -7645,6 +9356,9 @@
       <c r="D234" t="s">
         <v>677</v>
       </c>
+      <c r="E234" t="s">
+        <v>1249</v>
+      </c>
       <c r="F234" t="s">
         <v>912</v>
       </c>
@@ -7663,6 +9377,9 @@
       <c r="D235" t="s">
         <v>678</v>
       </c>
+      <c r="E235" t="s">
+        <v>1250</v>
+      </c>
       <c r="F235" t="s">
         <v>913</v>
       </c>
@@ -7681,6 +9398,9 @@
       <c r="D236" t="s">
         <v>665</v>
       </c>
+      <c r="E236" t="s">
+        <v>1251</v>
+      </c>
       <c r="F236" t="s">
         <v>914</v>
       </c>
@@ -7699,6 +9419,9 @@
       <c r="D237" t="s">
         <v>666</v>
       </c>
+      <c r="E237" t="s">
+        <v>1252</v>
+      </c>
       <c r="F237" t="s">
         <v>915</v>
       </c>
@@ -7717,6 +9440,9 @@
       <c r="D238" t="s">
         <v>667</v>
       </c>
+      <c r="E238" t="s">
+        <v>1253</v>
+      </c>
       <c r="F238" t="s">
         <v>916</v>
       </c>
@@ -7735,6 +9461,9 @@
       <c r="D239" t="s">
         <v>668</v>
       </c>
+      <c r="E239" t="s">
+        <v>1254</v>
+      </c>
       <c r="F239" t="s">
         <v>917</v>
       </c>
@@ -7753,6 +9482,9 @@
       <c r="D240" t="s">
         <v>661</v>
       </c>
+      <c r="E240" t="s">
+        <v>1255</v>
+      </c>
       <c r="F240" t="s">
         <v>918</v>
       </c>
@@ -7771,6 +9503,9 @@
       <c r="D241" t="s">
         <v>662</v>
       </c>
+      <c r="E241" t="s">
+        <v>1256</v>
+      </c>
       <c r="F241" t="s">
         <v>919</v>
       </c>
@@ -7789,6 +9524,9 @@
       <c r="D242" t="s">
         <v>663</v>
       </c>
+      <c r="E242" t="s">
+        <v>1257</v>
+      </c>
       <c r="F242" t="s">
         <v>920</v>
       </c>
@@ -7807,6 +9545,9 @@
       <c r="D243" t="s">
         <v>664</v>
       </c>
+      <c r="E243" t="s">
+        <v>1258</v>
+      </c>
       <c r="F243" t="s">
         <v>921</v>
       </c>
@@ -7825,6 +9566,9 @@
       <c r="D244" t="s">
         <v>657</v>
       </c>
+      <c r="E244" t="s">
+        <v>1259</v>
+      </c>
       <c r="F244" t="s">
         <v>922</v>
       </c>
@@ -7843,6 +9587,9 @@
       <c r="D245" t="s">
         <v>658</v>
       </c>
+      <c r="E245" t="s">
+        <v>1260</v>
+      </c>
       <c r="F245" t="s">
         <v>923</v>
       </c>
@@ -7861,6 +9608,9 @@
       <c r="D246" t="s">
         <v>659</v>
       </c>
+      <c r="E246" t="s">
+        <v>1261</v>
+      </c>
       <c r="F246" t="s">
         <v>924</v>
       </c>
@@ -7879,6 +9629,9 @@
       <c r="D247" t="s">
         <v>660</v>
       </c>
+      <c r="E247" t="s">
+        <v>1262</v>
+      </c>
       <c r="F247" t="s">
         <v>925</v>
       </c>
@@ -7897,6 +9650,9 @@
       <c r="D248" t="s">
         <v>669</v>
       </c>
+      <c r="E248" t="s">
+        <v>1263</v>
+      </c>
       <c r="F248" t="s">
         <v>926</v>
       </c>
@@ -7915,6 +9671,9 @@
       <c r="D249" t="s">
         <v>670</v>
       </c>
+      <c r="E249" t="s">
+        <v>1264</v>
+      </c>
       <c r="F249" t="s">
         <v>927</v>
       </c>
@@ -7933,6 +9692,9 @@
       <c r="D250" t="s">
         <v>671</v>
       </c>
+      <c r="E250" t="s">
+        <v>1265</v>
+      </c>
       <c r="F250" t="s">
         <v>928</v>
       </c>
@@ -7951,6 +9713,9 @@
       <c r="D251" t="s">
         <v>672</v>
       </c>
+      <c r="E251" t="s">
+        <v>1266</v>
+      </c>
       <c r="F251" t="s">
         <v>929</v>
       </c>
@@ -7969,6 +9734,9 @@
       <c r="D252" t="s">
         <v>673</v>
       </c>
+      <c r="E252" t="s">
+        <v>1267</v>
+      </c>
       <c r="F252" t="s">
         <v>930</v>
       </c>
@@ -7987,6 +9755,9 @@
       <c r="D253" t="s">
         <v>557</v>
       </c>
+      <c r="E253" t="s">
+        <v>1268</v>
+      </c>
       <c r="F253" t="s">
         <v>931</v>
       </c>
@@ -8005,6 +9776,9 @@
       <c r="D254" t="s">
         <v>561</v>
       </c>
+      <c r="E254" t="s">
+        <v>1269</v>
+      </c>
       <c r="F254" t="s">
         <v>932</v>
       </c>
@@ -8023,6 +9797,9 @@
       <c r="D255" t="s">
         <v>556</v>
       </c>
+      <c r="E255" t="s">
+        <v>1270</v>
+      </c>
       <c r="F255" t="s">
         <v>933</v>
       </c>
@@ -8041,6 +9818,9 @@
       <c r="D256" t="s">
         <v>612</v>
       </c>
+      <c r="E256" t="s">
+        <v>1271</v>
+      </c>
       <c r="F256" t="s">
         <v>934</v>
       </c>
@@ -8059,6 +9839,9 @@
       <c r="D257" t="s">
         <v>613</v>
       </c>
+      <c r="E257" t="s">
+        <v>1272</v>
+      </c>
       <c r="F257" t="s">
         <v>935</v>
       </c>
@@ -8077,6 +9860,9 @@
       <c r="D258" t="s">
         <v>614</v>
       </c>
+      <c r="E258" t="s">
+        <v>1273</v>
+      </c>
       <c r="F258" t="s">
         <v>936</v>
       </c>
@@ -8095,6 +9881,9 @@
       <c r="D259" t="s">
         <v>615</v>
       </c>
+      <c r="E259" t="s">
+        <v>1274</v>
+      </c>
       <c r="F259" t="s">
         <v>937</v>
       </c>
@@ -8113,6 +9902,9 @@
       <c r="D260" t="s">
         <v>562</v>
       </c>
+      <c r="E260" t="s">
+        <v>1275</v>
+      </c>
       <c r="F260" t="s">
         <v>938</v>
       </c>
@@ -8131,6 +9923,9 @@
       <c r="D261" t="s">
         <v>616</v>
       </c>
+      <c r="E261" t="s">
+        <v>1276</v>
+      </c>
       <c r="F261" t="s">
         <v>939</v>
       </c>
@@ -8149,6 +9944,9 @@
       <c r="D262" t="s">
         <v>617</v>
       </c>
+      <c r="E262" t="s">
+        <v>1277</v>
+      </c>
       <c r="F262" t="s">
         <v>940</v>
       </c>
@@ -8167,6 +9965,9 @@
       <c r="D263" t="s">
         <v>627</v>
       </c>
+      <c r="E263" t="s">
+        <v>1278</v>
+      </c>
       <c r="F263" t="s">
         <v>941</v>
       </c>
@@ -8185,6 +9986,9 @@
       <c r="D264" t="s">
         <v>618</v>
       </c>
+      <c r="E264" t="s">
+        <v>1279</v>
+      </c>
       <c r="F264" t="s">
         <v>942</v>
       </c>
@@ -8203,6 +10007,9 @@
       <c r="D265" t="s">
         <v>619</v>
       </c>
+      <c r="E265" t="s">
+        <v>1280</v>
+      </c>
       <c r="F265" t="s">
         <v>943</v>
       </c>
@@ -8221,6 +10028,9 @@
       <c r="D266" t="s">
         <v>620</v>
       </c>
+      <c r="E266" t="s">
+        <v>1281</v>
+      </c>
       <c r="F266" t="s">
         <v>944</v>
       </c>
@@ -8239,6 +10049,9 @@
       <c r="D267" t="s">
         <v>621</v>
       </c>
+      <c r="E267" t="s">
+        <v>1282</v>
+      </c>
       <c r="F267" t="s">
         <v>945</v>
       </c>
@@ -8257,6 +10070,9 @@
       <c r="D268" t="s">
         <v>622</v>
       </c>
+      <c r="E268" t="s">
+        <v>1283</v>
+      </c>
       <c r="F268" t="s">
         <v>946</v>
       </c>
@@ -8275,6 +10091,9 @@
       <c r="D269" t="s">
         <v>623</v>
       </c>
+      <c r="E269" t="s">
+        <v>1284</v>
+      </c>
       <c r="F269" t="s">
         <v>947</v>
       </c>
@@ -8293,6 +10112,9 @@
       <c r="D270" t="s">
         <v>624</v>
       </c>
+      <c r="E270" t="s">
+        <v>1285</v>
+      </c>
       <c r="F270" t="s">
         <v>948</v>
       </c>
@@ -8311,6 +10133,9 @@
       <c r="D271" t="s">
         <v>625</v>
       </c>
+      <c r="E271" t="s">
+        <v>1286</v>
+      </c>
       <c r="F271" t="s">
         <v>949</v>
       </c>
@@ -8329,6 +10154,9 @@
       <c r="D272" t="s">
         <v>626</v>
       </c>
+      <c r="E272" t="s">
+        <v>1287</v>
+      </c>
       <c r="F272" t="s">
         <v>950</v>
       </c>
@@ -8347,6 +10175,9 @@
       <c r="D273" t="s">
         <v>652</v>
       </c>
+      <c r="E273" t="s">
+        <v>1288</v>
+      </c>
       <c r="F273" t="s">
         <v>951</v>
       </c>
@@ -8365,6 +10196,9 @@
       <c r="D274" t="s">
         <v>653</v>
       </c>
+      <c r="E274" t="s">
+        <v>1289</v>
+      </c>
       <c r="F274" t="s">
         <v>952</v>
       </c>
@@ -8383,6 +10217,9 @@
       <c r="D275" t="s">
         <v>654</v>
       </c>
+      <c r="E275" t="s">
+        <v>1290</v>
+      </c>
       <c r="F275" t="s">
         <v>953</v>
       </c>
@@ -8401,6 +10238,9 @@
       <c r="D276" t="s">
         <v>655</v>
       </c>
+      <c r="E276" t="s">
+        <v>1291</v>
+      </c>
       <c r="F276" t="s">
         <v>954</v>
       </c>
@@ -8419,6 +10259,9 @@
       <c r="D277" t="s">
         <v>656</v>
       </c>
+      <c r="E277" t="s">
+        <v>1292</v>
+      </c>
       <c r="F277" t="s">
         <v>955</v>
       </c>
@@ -8437,6 +10280,9 @@
       <c r="D278" t="s">
         <v>648</v>
       </c>
+      <c r="E278" t="s">
+        <v>1293</v>
+      </c>
       <c r="F278" t="s">
         <v>956</v>
       </c>
@@ -8455,6 +10301,9 @@
       <c r="D279" t="s">
         <v>649</v>
       </c>
+      <c r="E279" t="s">
+        <v>1294</v>
+      </c>
       <c r="F279" t="s">
         <v>957</v>
       </c>
@@ -8473,6 +10322,9 @@
       <c r="D280" t="s">
         <v>650</v>
       </c>
+      <c r="E280" t="s">
+        <v>1295</v>
+      </c>
       <c r="F280" t="s">
         <v>958</v>
       </c>
@@ -8491,6 +10343,9 @@
       <c r="D281" t="s">
         <v>651</v>
       </c>
+      <c r="E281" t="s">
+        <v>1296</v>
+      </c>
       <c r="F281" t="s">
         <v>959</v>
       </c>
@@ -8509,6 +10364,9 @@
       <c r="D282" t="s">
         <v>644</v>
       </c>
+      <c r="E282" t="s">
+        <v>1297</v>
+      </c>
       <c r="F282" t="s">
         <v>960</v>
       </c>
@@ -8527,6 +10385,9 @@
       <c r="D283" t="s">
         <v>645</v>
       </c>
+      <c r="E283" t="s">
+        <v>1298</v>
+      </c>
       <c r="F283" t="s">
         <v>961</v>
       </c>
@@ -8545,6 +10406,9 @@
       <c r="D284" t="s">
         <v>646</v>
       </c>
+      <c r="E284" t="s">
+        <v>1299</v>
+      </c>
       <c r="F284" t="s">
         <v>962</v>
       </c>
@@ -8563,6 +10427,9 @@
       <c r="D285" t="s">
         <v>647</v>
       </c>
+      <c r="E285" t="s">
+        <v>1300</v>
+      </c>
       <c r="F285" t="s">
         <v>963</v>
       </c>
@@ -8581,6 +10448,9 @@
       <c r="D286" t="s">
         <v>563</v>
       </c>
+      <c r="E286" t="s">
+        <v>1301</v>
+      </c>
       <c r="F286" t="s">
         <v>964</v>
       </c>
@@ -8599,6 +10469,9 @@
       <c r="D287" t="s">
         <v>640</v>
       </c>
+      <c r="E287" t="s">
+        <v>1302</v>
+      </c>
       <c r="F287" t="s">
         <v>965</v>
       </c>
@@ -8617,6 +10490,9 @@
       <c r="D288" t="s">
         <v>641</v>
       </c>
+      <c r="E288" t="s">
+        <v>1303</v>
+      </c>
       <c r="F288" t="s">
         <v>966</v>
       </c>
@@ -8635,6 +10511,9 @@
       <c r="D289" t="s">
         <v>642</v>
       </c>
+      <c r="E289" t="s">
+        <v>1304</v>
+      </c>
       <c r="F289" t="s">
         <v>967</v>
       </c>
@@ -8653,6 +10532,9 @@
       <c r="D290" t="s">
         <v>643</v>
       </c>
+      <c r="E290" t="s">
+        <v>1305</v>
+      </c>
       <c r="F290" t="s">
         <v>968</v>
       </c>
@@ -8671,6 +10553,9 @@
       <c r="D291" t="s">
         <v>564</v>
       </c>
+      <c r="E291" t="s">
+        <v>1306</v>
+      </c>
       <c r="F291" t="s">
         <v>969</v>
       </c>
@@ -8689,6 +10574,9 @@
       <c r="D292" t="s">
         <v>636</v>
       </c>
+      <c r="E292" t="s">
+        <v>1307</v>
+      </c>
       <c r="F292" t="s">
         <v>970</v>
       </c>
@@ -8707,6 +10595,9 @@
       <c r="D293" t="s">
         <v>637</v>
       </c>
+      <c r="E293" t="s">
+        <v>1308</v>
+      </c>
       <c r="F293" t="s">
         <v>971</v>
       </c>
@@ -8725,6 +10616,9 @@
       <c r="D294" t="s">
         <v>638</v>
       </c>
+      <c r="E294" t="s">
+        <v>1309</v>
+      </c>
       <c r="F294" t="s">
         <v>972</v>
       </c>
@@ -8743,6 +10637,9 @@
       <c r="D295" t="s">
         <v>639</v>
       </c>
+      <c r="E295" t="s">
+        <v>1310</v>
+      </c>
       <c r="F295" t="s">
         <v>973</v>
       </c>
@@ -8761,6 +10658,9 @@
       <c r="D296" t="s">
         <v>565</v>
       </c>
+      <c r="E296" t="s">
+        <v>1311</v>
+      </c>
       <c r="F296" t="s">
         <v>974</v>
       </c>
@@ -8779,6 +10679,9 @@
       <c r="D297" t="s">
         <v>628</v>
       </c>
+      <c r="E297" t="s">
+        <v>1312</v>
+      </c>
       <c r="F297" t="s">
         <v>975</v>
       </c>
@@ -8797,6 +10700,9 @@
       <c r="D298" t="s">
         <v>629</v>
       </c>
+      <c r="E298" t="s">
+        <v>1313</v>
+      </c>
       <c r="F298" t="s">
         <v>976</v>
       </c>
@@ -8815,6 +10721,9 @@
       <c r="D299" t="s">
         <v>630</v>
       </c>
+      <c r="E299" t="s">
+        <v>1314</v>
+      </c>
       <c r="F299" t="s">
         <v>977</v>
       </c>
@@ -8833,6 +10742,9 @@
       <c r="D300" t="s">
         <v>631</v>
       </c>
+      <c r="E300" t="s">
+        <v>1315</v>
+      </c>
       <c r="F300" t="s">
         <v>978</v>
       </c>
@@ -8851,6 +10763,9 @@
       <c r="D301" t="s">
         <v>632</v>
       </c>
+      <c r="E301" t="s">
+        <v>1316</v>
+      </c>
       <c r="F301" t="s">
         <v>979</v>
       </c>
@@ -8869,6 +10784,9 @@
       <c r="D302" t="s">
         <v>633</v>
       </c>
+      <c r="E302" t="s">
+        <v>1317</v>
+      </c>
       <c r="F302" t="s">
         <v>980</v>
       </c>
@@ -8887,6 +10805,9 @@
       <c r="D303" t="s">
         <v>634</v>
       </c>
+      <c r="E303" t="s">
+        <v>1318</v>
+      </c>
       <c r="F303" t="s">
         <v>981</v>
       </c>
@@ -8905,6 +10826,9 @@
       <c r="D304" t="s">
         <v>635</v>
       </c>
+      <c r="E304" t="s">
+        <v>1319</v>
+      </c>
       <c r="F304" t="s">
         <v>982</v>
       </c>
@@ -8923,6 +10847,9 @@
       <c r="D305" t="s">
         <v>566</v>
       </c>
+      <c r="E305" t="s">
+        <v>1320</v>
+      </c>
       <c r="F305" t="s">
         <v>983</v>
       </c>
@@ -8941,6 +10868,9 @@
       <c r="D306" t="s">
         <v>583</v>
       </c>
+      <c r="E306" t="s">
+        <v>1321</v>
+      </c>
       <c r="F306" t="s">
         <v>984</v>
       </c>
@@ -8959,6 +10889,9 @@
       <c r="D307" t="s">
         <v>584</v>
       </c>
+      <c r="E307" t="s">
+        <v>1322</v>
+      </c>
       <c r="F307" t="s">
         <v>985</v>
       </c>
@@ -8977,6 +10910,9 @@
       <c r="D308" t="s">
         <v>585</v>
       </c>
+      <c r="E308" t="s">
+        <v>1323</v>
+      </c>
       <c r="F308" t="s">
         <v>986</v>
       </c>
@@ -8995,6 +10931,9 @@
       <c r="D309" t="s">
         <v>586</v>
       </c>
+      <c r="E309" t="s">
+        <v>1324</v>
+      </c>
       <c r="F309" t="s">
         <v>987</v>
       </c>
@@ -9013,6 +10952,9 @@
       <c r="D310" t="s">
         <v>575</v>
       </c>
+      <c r="E310" t="s">
+        <v>1325</v>
+      </c>
       <c r="F310" t="s">
         <v>988</v>
       </c>
@@ -9031,6 +10973,9 @@
       <c r="D311" t="s">
         <v>576</v>
       </c>
+      <c r="E311" t="s">
+        <v>1326</v>
+      </c>
       <c r="F311" t="s">
         <v>989</v>
       </c>
@@ -9049,6 +10994,9 @@
       <c r="D312" t="s">
         <v>577</v>
       </c>
+      <c r="E312" t="s">
+        <v>1327</v>
+      </c>
       <c r="F312" t="s">
         <v>990</v>
       </c>
@@ -9067,6 +11015,9 @@
       <c r="D313" t="s">
         <v>578</v>
       </c>
+      <c r="E313" t="s">
+        <v>1328</v>
+      </c>
       <c r="F313" t="s">
         <v>991</v>
       </c>
@@ -9085,6 +11036,9 @@
       <c r="D314" t="s">
         <v>567</v>
       </c>
+      <c r="E314" t="s">
+        <v>1329</v>
+      </c>
       <c r="F314" t="s">
         <v>992</v>
       </c>
@@ -9103,6 +11057,9 @@
       <c r="D315" t="s">
         <v>579</v>
       </c>
+      <c r="E315" t="s">
+        <v>1330</v>
+      </c>
       <c r="F315" t="s">
         <v>993</v>
       </c>
@@ -9121,6 +11078,9 @@
       <c r="D316" t="s">
         <v>580</v>
       </c>
+      <c r="E316" t="s">
+        <v>1331</v>
+      </c>
       <c r="F316" t="s">
         <v>994</v>
       </c>
@@ -9139,6 +11099,9 @@
       <c r="D317" t="s">
         <v>581</v>
       </c>
+      <c r="E317" t="s">
+        <v>1332</v>
+      </c>
       <c r="F317" t="s">
         <v>995</v>
       </c>
@@ -9157,6 +11120,9 @@
       <c r="D318" t="s">
         <v>582</v>
       </c>
+      <c r="E318" t="s">
+        <v>1333</v>
+      </c>
       <c r="F318" t="s">
         <v>996</v>
       </c>
@@ -9175,6 +11141,9 @@
       <c r="D319" t="s">
         <v>574</v>
       </c>
+      <c r="E319" t="s">
+        <v>1334</v>
+      </c>
       <c r="F319" t="s">
         <v>997</v>
       </c>
@@ -9193,6 +11162,9 @@
       <c r="D320" t="s">
         <v>568</v>
       </c>
+      <c r="E320" t="s">
+        <v>1335</v>
+      </c>
       <c r="F320" t="s">
         <v>998</v>
       </c>
@@ -9211,6 +11183,9 @@
       <c r="D321" t="s">
         <v>569</v>
       </c>
+      <c r="E321" t="s">
+        <v>1336</v>
+      </c>
       <c r="F321" t="s">
         <v>999</v>
       </c>
@@ -9229,6 +11204,9 @@
       <c r="D322" t="s">
         <v>570</v>
       </c>
+      <c r="E322" t="s">
+        <v>1337</v>
+      </c>
       <c r="F322" t="s">
         <v>1000</v>
       </c>
@@ -9247,6 +11225,9 @@
       <c r="D323" t="s">
         <v>571</v>
       </c>
+      <c r="E323" t="s">
+        <v>1338</v>
+      </c>
       <c r="F323" t="s">
         <v>1001</v>
       </c>
@@ -9265,6 +11246,9 @@
       <c r="D324" t="s">
         <v>572</v>
       </c>
+      <c r="E324" t="s">
+        <v>1339</v>
+      </c>
       <c r="F324" t="s">
         <v>1002</v>
       </c>
@@ -9283,6 +11267,9 @@
       <c r="D325" t="s">
         <v>573</v>
       </c>
+      <c r="E325" t="s">
+        <v>1340</v>
+      </c>
       <c r="F325" t="s">
         <v>1003</v>
       </c>
@@ -9301,6 +11288,9 @@
       <c r="D326" t="s">
         <v>588</v>
       </c>
+      <c r="E326" t="s">
+        <v>1341</v>
+      </c>
       <c r="F326" t="s">
         <v>1004</v>
       </c>
@@ -9319,6 +11309,9 @@
       <c r="D327" t="s">
         <v>587</v>
       </c>
+      <c r="E327" t="s">
+        <v>1342</v>
+      </c>
       <c r="F327" t="s">
         <v>1005</v>
       </c>
@@ -9337,6 +11330,9 @@
       <c r="D328" t="s">
         <v>595</v>
       </c>
+      <c r="E328" t="s">
+        <v>1343</v>
+      </c>
       <c r="F328" t="s">
         <v>1006</v>
       </c>
@@ -9355,6 +11351,9 @@
       <c r="D329" t="s">
         <v>596</v>
       </c>
+      <c r="E329" t="s">
+        <v>1344</v>
+      </c>
       <c r="F329" t="s">
         <v>1007</v>
       </c>
@@ -9373,6 +11372,9 @@
       <c r="D330" t="s">
         <v>597</v>
       </c>
+      <c r="E330" t="s">
+        <v>1345</v>
+      </c>
       <c r="F330" t="s">
         <v>1008</v>
       </c>
@@ -9391,6 +11393,9 @@
       <c r="D331" t="s">
         <v>598</v>
       </c>
+      <c r="E331" t="s">
+        <v>1346</v>
+      </c>
       <c r="F331" t="s">
         <v>1009</v>
       </c>
@@ -9409,6 +11414,9 @@
       <c r="D332" t="s">
         <v>599</v>
       </c>
+      <c r="E332" t="s">
+        <v>1347</v>
+      </c>
       <c r="F332" t="s">
         <v>1010</v>
       </c>
@@ -9427,6 +11435,9 @@
       <c r="D333" t="s">
         <v>594</v>
       </c>
+      <c r="E333" t="s">
+        <v>1348</v>
+      </c>
       <c r="F333" t="s">
         <v>1011</v>
       </c>
@@ -9445,6 +11456,9 @@
       <c r="D334" t="s">
         <v>593</v>
       </c>
+      <c r="E334" t="s">
+        <v>1349</v>
+      </c>
       <c r="F334" t="s">
         <v>1012</v>
       </c>
@@ -9463,6 +11477,9 @@
       <c r="D335" t="s">
         <v>589</v>
       </c>
+      <c r="E335" t="s">
+        <v>1350</v>
+      </c>
       <c r="F335" t="s">
         <v>1013</v>
       </c>
@@ -9481,6 +11498,9 @@
       <c r="D336" t="s">
         <v>590</v>
       </c>
+      <c r="E336" t="s">
+        <v>1351</v>
+      </c>
       <c r="F336" t="s">
         <v>1014</v>
       </c>
@@ -9499,6 +11519,9 @@
       <c r="D337" t="s">
         <v>591</v>
       </c>
+      <c r="E337" t="s">
+        <v>1352</v>
+      </c>
       <c r="F337" t="s">
         <v>1015</v>
       </c>
@@ -9517,11 +11540,15 @@
       <c r="D338" t="s">
         <v>592</v>
       </c>
+      <c r="E338" t="s">
+        <v>1353</v>
+      </c>
       <c r="F338" t="s">
         <v>1016</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Papilddati/EGV_aprakstiem_20241227.xlsx
+++ b/Papilddati/EGV_aprakstiem_20241227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrisavotins/Documents/projekti/LVAFA_SDMs/Darbam/PutnuSDMs_gramata/Papilddati/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB9000B-10D5-F94C-89A2-B50E4581BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53421D7C-1E41-134D-BE32-88827A07DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35900" yWindow="500" windowWidth="25480" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35900" yWindow="500" windowWidth="25480" windowHeight="22680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1079,42 +1079,6 @@
     <t>Uzkrāto ik mēneša nokrišņu summu mediāna 2015-2023</t>
   </si>
   <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=500m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=1250m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=3000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=10000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=500m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=1250m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=3000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=10000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m)  Šenona daudzveidības indekss detalizētajām mežu klasēm r=500m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss detalizētajām mežu klasēm r=1250m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss detalizētajām mežu klasēm r=3000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>Vidējais α-līmeņa (500x500m) Šenona daudzveidības indekss detalizētajām mežu klasēm r=10000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
     <t>Attālums līdz apbūvei, vidējais analīzes šūnā</t>
   </si>
   <si>
@@ -4098,6 +4062,42 @@
   </si>
   <si>
     <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.11.01</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=500m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=1250m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=3000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=10000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=500m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=1250m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=3000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=10000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m)  Šenona daudzveidības indekss detalizētajām mežu klasēm r=500m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām mežu klasēm r=1250m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām mežu klasēm r=3000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām mežu klasēm r=10000m ap analīzes šūnas centru</t>
   </si>
 </sst>
 </file>
@@ -4439,7 +4439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4464,10 +4466,10 @@
         <v>338</v>
       </c>
       <c r="E1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F1" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4482,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="F2" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4503,13 +4505,13 @@
         <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="F3" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4524,13 +4526,13 @@
         <v>1250</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="F4" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4545,13 +4547,13 @@
         <v>3000</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E5" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="F5" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4566,13 +4568,13 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E6" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="F6" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4587,13 +4589,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E7" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="F7" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4608,13 +4610,13 @@
         <v>500</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E8" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="F8" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4629,13 +4631,13 @@
         <v>1250</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="F9" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4650,13 +4652,13 @@
         <v>3000</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E10" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="F10" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4671,13 +4673,13 @@
         <v>10000</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="F11" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -4692,13 +4694,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E12" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="F12" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4713,13 +4715,13 @@
         <v>500</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E13" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="F13" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -4734,13 +4736,13 @@
         <v>1250</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E14" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="F14" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4755,13 +4757,13 @@
         <v>3000</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="F15" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4776,13 +4778,13 @@
         <v>10000</v>
       </c>
       <c r="D16" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="F16" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4797,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E17" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="F17" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4818,13 +4820,13 @@
         <v>500</v>
       </c>
       <c r="D18" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E18" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="F18" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4839,13 +4841,13 @@
         <v>1250</v>
       </c>
       <c r="D19" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E19" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="F19" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4860,13 +4862,13 @@
         <v>3000</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E20" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="F20" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4881,13 +4883,13 @@
         <v>10000</v>
       </c>
       <c r="D21" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E21" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="F21" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4902,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E22" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="F22" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4923,13 +4925,13 @@
         <v>500</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E23" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="F23" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4944,13 +4946,13 @@
         <v>1250</v>
       </c>
       <c r="D24" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E24" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="F24" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4965,13 +4967,13 @@
         <v>3000</v>
       </c>
       <c r="D25" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E25" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="F25" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -4986,13 +4988,13 @@
         <v>10000</v>
       </c>
       <c r="D26" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E26" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="F26" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -5007,13 +5009,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E27" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="F27" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -5028,13 +5030,13 @@
         <v>500</v>
       </c>
       <c r="D28" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E28" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="F28" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5049,13 +5051,13 @@
         <v>1250</v>
       </c>
       <c r="D29" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E29" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="F29" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -5070,13 +5072,13 @@
         <v>3000</v>
       </c>
       <c r="D30" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E30" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="F30" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -5091,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E31" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="F31" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -5112,13 +5114,13 @@
         <v>500</v>
       </c>
       <c r="D32" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E32" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="F32" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -5133,13 +5135,13 @@
         <v>1250</v>
       </c>
       <c r="D33" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E33" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="F33" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -5154,13 +5156,13 @@
         <v>3000</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E34" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="F34" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -5175,13 +5177,13 @@
         <v>10000</v>
       </c>
       <c r="D35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E35" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="F35" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -5196,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E36" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="F36" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -5217,13 +5219,13 @@
         <v>500</v>
       </c>
       <c r="D37" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E37" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="F37" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -5238,13 +5240,13 @@
         <v>1250</v>
       </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E38" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="F38" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,13 +5261,13 @@
         <v>3000</v>
       </c>
       <c r="D39" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E39" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="F39" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -5280,13 +5282,13 @@
         <v>10000</v>
       </c>
       <c r="D40" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E40" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="F40" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -5301,13 +5303,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E41" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="F41" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -5322,13 +5324,13 @@
         <v>500</v>
       </c>
       <c r="D42" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E42" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="F42" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -5343,13 +5345,13 @@
         <v>1250</v>
       </c>
       <c r="D43" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E43" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="F43" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -5364,13 +5366,13 @@
         <v>3000</v>
       </c>
       <c r="D44" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E44" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="F44" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -5385,13 +5387,13 @@
         <v>10000</v>
       </c>
       <c r="D45" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E45" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="F45" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -5409,10 +5411,10 @@
         <v>341</v>
       </c>
       <c r="E46" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="F46" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -5430,10 +5432,10 @@
         <v>344</v>
       </c>
       <c r="E47" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="F47" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -5451,10 +5453,10 @@
         <v>342</v>
       </c>
       <c r="E48" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="F48" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -5472,10 +5474,10 @@
         <v>343</v>
       </c>
       <c r="E49" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="F49" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -5493,10 +5495,10 @@
         <v>345</v>
       </c>
       <c r="E50" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="F50" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -5514,10 +5516,10 @@
         <v>346</v>
       </c>
       <c r="E51" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="F51" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -5532,13 +5534,13 @@
         <v>500</v>
       </c>
       <c r="D52" t="s">
-        <v>347</v>
+        <v>1342</v>
       </c>
       <c r="E52" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="F52" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -5553,13 +5555,13 @@
         <v>1250</v>
       </c>
       <c r="D53" t="s">
-        <v>348</v>
+        <v>1343</v>
       </c>
       <c r="E53" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="F53" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -5574,13 +5576,13 @@
         <v>3000</v>
       </c>
       <c r="D54" t="s">
-        <v>349</v>
+        <v>1344</v>
       </c>
       <c r="E54" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="F54" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -5595,13 +5597,13 @@
         <v>10000</v>
       </c>
       <c r="D55" t="s">
-        <v>350</v>
+        <v>1345</v>
       </c>
       <c r="E55" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="F55" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -5616,13 +5618,13 @@
         <v>500</v>
       </c>
       <c r="D56" t="s">
-        <v>351</v>
+        <v>1346</v>
       </c>
       <c r="E56" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="F56" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -5637,13 +5639,13 @@
         <v>1250</v>
       </c>
       <c r="D57" t="s">
-        <v>352</v>
+        <v>1347</v>
       </c>
       <c r="E57" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="F57" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -5658,13 +5660,13 @@
         <v>3000</v>
       </c>
       <c r="D58" t="s">
-        <v>353</v>
+        <v>1348</v>
       </c>
       <c r="E58" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="F58" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5679,13 +5681,13 @@
         <v>10000</v>
       </c>
       <c r="D59" t="s">
-        <v>354</v>
+        <v>1349</v>
       </c>
       <c r="E59" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="F59" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -5700,13 +5702,13 @@
         <v>500</v>
       </c>
       <c r="D60" t="s">
-        <v>355</v>
+        <v>1350</v>
       </c>
       <c r="E60" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="F60" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -5721,13 +5723,13 @@
         <v>1250</v>
       </c>
       <c r="D61" t="s">
-        <v>356</v>
+        <v>1351</v>
       </c>
       <c r="E61" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="F61" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -5742,13 +5744,13 @@
         <v>3000</v>
       </c>
       <c r="D62" t="s">
-        <v>357</v>
+        <v>1352</v>
       </c>
       <c r="E62" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="F62" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -5763,13 +5765,13 @@
         <v>10000</v>
       </c>
       <c r="D63" t="s">
-        <v>358</v>
+        <v>1353</v>
       </c>
       <c r="E63" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="F63" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -5784,13 +5786,13 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E64" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="F64" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -5805,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E65" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="F65" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -5826,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E66" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="F66" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5847,13 +5849,13 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E67" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="F67" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -5868,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E68" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="F68" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -5889,13 +5891,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E69" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="F69" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -5910,13 +5912,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E70" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="F70" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -5931,13 +5933,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E71" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="F71" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -5952,13 +5954,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E72" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="F72" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -5973,13 +5975,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E73" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="F73" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -5994,13 +5996,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E74" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="F74" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -6015,13 +6017,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E75" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="F75" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -6036,13 +6038,13 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E76" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="F76" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -6057,13 +6059,13 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E77" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="F77" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -6078,13 +6080,13 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E78" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="F78" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -6099,13 +6101,13 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E79" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="F79" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -6120,13 +6122,13 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E80" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="F80" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -6141,13 +6143,13 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E81" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="F81" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -6162,13 +6164,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E82" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="F82" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -6183,13 +6185,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E83" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="F83" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -6204,13 +6206,13 @@
         <v>500</v>
       </c>
       <c r="D84" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E84" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="F84" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -6225,13 +6227,13 @@
         <v>1250</v>
       </c>
       <c r="D85" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E85" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="F85" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -6246,13 +6248,13 @@
         <v>3000</v>
       </c>
       <c r="D86" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E86" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="F86" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -6267,13 +6269,13 @@
         <v>10000</v>
       </c>
       <c r="D87" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E87" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="F87" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -6288,13 +6290,13 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E88" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="F88" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -6309,13 +6311,13 @@
         <v>500</v>
       </c>
       <c r="D89" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E89" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="F89" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6330,13 +6332,13 @@
         <v>1250</v>
       </c>
       <c r="D90" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E90" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="F90" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6351,13 +6353,13 @@
         <v>3000</v>
       </c>
       <c r="D91" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E91" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="F91" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6372,13 +6374,13 @@
         <v>10000</v>
       </c>
       <c r="D92" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E92" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="F92" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -6393,13 +6395,13 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E93" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="F93" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -6414,13 +6416,13 @@
         <v>500</v>
       </c>
       <c r="D94" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E94" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="F94" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -6435,13 +6437,13 @@
         <v>1250</v>
       </c>
       <c r="D95" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E95" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="F95" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -6456,13 +6458,13 @@
         <v>3000</v>
       </c>
       <c r="D96" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E96" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="F96" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -6477,13 +6479,13 @@
         <v>10000</v>
       </c>
       <c r="D97" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E97" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="F97" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -6498,13 +6500,13 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E98" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="F98" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -6519,13 +6521,13 @@
         <v>500</v>
       </c>
       <c r="D99" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E99" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="F99" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -6540,13 +6542,13 @@
         <v>1250</v>
       </c>
       <c r="D100" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E100" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="F100" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -6561,13 +6563,13 @@
         <v>3000</v>
       </c>
       <c r="D101" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E101" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="F101" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -6582,13 +6584,13 @@
         <v>10000</v>
       </c>
       <c r="D102" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E102" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="F102" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -6603,13 +6605,13 @@
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E103" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="F103" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -6624,13 +6626,13 @@
         <v>500</v>
       </c>
       <c r="D104" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E104" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="F104" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -6645,13 +6647,13 @@
         <v>1250</v>
       </c>
       <c r="D105" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E105" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="F105" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -6666,13 +6668,13 @@
         <v>3000</v>
       </c>
       <c r="D106" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E106" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="F106" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -6687,13 +6689,13 @@
         <v>10000</v>
       </c>
       <c r="D107" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E107" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="F107" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -6708,13 +6710,13 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E108" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="F108" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -6729,13 +6731,13 @@
         <v>500</v>
       </c>
       <c r="D109" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E109" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="F109" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -6750,13 +6752,13 @@
         <v>1250</v>
       </c>
       <c r="D110" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E110" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="F110" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -6771,13 +6773,13 @@
         <v>3000</v>
       </c>
       <c r="D111" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E111" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="F111" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -6792,13 +6794,13 @@
         <v>10000</v>
       </c>
       <c r="D112" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E112" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="F112" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -6813,13 +6815,13 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E113" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="F113" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -6834,13 +6836,13 @@
         <v>500</v>
       </c>
       <c r="D114" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E114" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="F114" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -6855,13 +6857,13 @@
         <v>1250</v>
       </c>
       <c r="D115" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E115" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="F115" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -6876,13 +6878,13 @@
         <v>3000</v>
       </c>
       <c r="D116" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E116" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="F116" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -6897,13 +6899,13 @@
         <v>10000</v>
       </c>
       <c r="D117" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E117" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="F117" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -6918,13 +6920,13 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E118" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="F118" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -6939,13 +6941,13 @@
         <v>500</v>
       </c>
       <c r="D119" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E119" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="F119" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -6960,13 +6962,13 @@
         <v>1250</v>
       </c>
       <c r="D120" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E120" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="F120" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -6981,13 +6983,13 @@
         <v>3000</v>
       </c>
       <c r="D121" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E121" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="F121" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -7002,13 +7004,13 @@
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E122" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="F122" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -7023,13 +7025,13 @@
         <v>500</v>
       </c>
       <c r="D123" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E123" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="F123" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -7044,13 +7046,13 @@
         <v>1250</v>
       </c>
       <c r="D124" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E124" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="F124" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -7065,13 +7067,13 @@
         <v>3000</v>
       </c>
       <c r="D125" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E125" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="F125" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -7086,13 +7088,13 @@
         <v>10000</v>
       </c>
       <c r="D126" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E126" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="F126" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -7107,13 +7109,13 @@
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E127" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="F127" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -7128,13 +7130,13 @@
         <v>500</v>
       </c>
       <c r="D128" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E128" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="F128" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -7149,13 +7151,13 @@
         <v>1250</v>
       </c>
       <c r="D129" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E129" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="F129" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -7170,13 +7172,13 @@
         <v>3000</v>
       </c>
       <c r="D130" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E130" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="F130" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -7191,13 +7193,13 @@
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E131" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="F131" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -7212,13 +7214,13 @@
         <v>500</v>
       </c>
       <c r="D132" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E132" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="F132" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -7233,13 +7235,13 @@
         <v>1250</v>
       </c>
       <c r="D133" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E133" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="F133" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -7254,13 +7256,13 @@
         <v>3000</v>
       </c>
       <c r="D134" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E134" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="F134" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -7275,13 +7277,13 @@
         <v>10000</v>
       </c>
       <c r="D135" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E135" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="F135" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -7296,13 +7298,13 @@
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E136" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="F136" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -7317,13 +7319,13 @@
         <v>500</v>
       </c>
       <c r="D137" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E137" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="F137" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -7338,13 +7340,13 @@
         <v>1250</v>
       </c>
       <c r="D138" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E138" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="F138" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -7359,13 +7361,13 @@
         <v>3000</v>
       </c>
       <c r="D139" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E139" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="F139" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -7380,13 +7382,13 @@
         <v>10000</v>
       </c>
       <c r="D140" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E140" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="F140" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -7401,13 +7403,13 @@
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E141" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="F141" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -7422,13 +7424,13 @@
         <v>500</v>
       </c>
       <c r="D142" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E142" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="F142" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -7443,13 +7445,13 @@
         <v>1250</v>
       </c>
       <c r="D143" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E143" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="F143" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -7464,13 +7466,13 @@
         <v>3000</v>
       </c>
       <c r="D144" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E144" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="F144" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -7485,13 +7487,13 @@
         <v>10000</v>
       </c>
       <c r="D145" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E145" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="F145" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -7506,13 +7508,13 @@
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E146" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="F146" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -7527,13 +7529,13 @@
         <v>500</v>
       </c>
       <c r="D147" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E147" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="F147" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -7548,13 +7550,13 @@
         <v>1250</v>
       </c>
       <c r="D148" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E148" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="F148" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -7569,13 +7571,13 @@
         <v>3000</v>
       </c>
       <c r="D149" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E149" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="F149" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -7590,13 +7592,13 @@
         <v>10000</v>
       </c>
       <c r="D150" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E150" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="F150" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -7611,13 +7613,13 @@
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E151" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="F151" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -7632,13 +7634,13 @@
         <v>500</v>
       </c>
       <c r="D152" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E152" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="F152" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -7653,13 +7655,13 @@
         <v>1250</v>
       </c>
       <c r="D153" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E153" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="F153" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -7674,13 +7676,13 @@
         <v>3000</v>
       </c>
       <c r="D154" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E154" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="F154" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -7695,13 +7697,13 @@
         <v>10000</v>
       </c>
       <c r="D155" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E155" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="F155" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -7716,13 +7718,13 @@
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E156" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="F156" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -7737,13 +7739,13 @@
         <v>500</v>
       </c>
       <c r="D157" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E157" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="F157" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -7758,13 +7760,13 @@
         <v>1250</v>
       </c>
       <c r="D158" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E158" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="F158" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -7779,13 +7781,13 @@
         <v>3000</v>
       </c>
       <c r="D159" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E159" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="F159" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -7800,13 +7802,13 @@
         <v>10000</v>
       </c>
       <c r="D160" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E160" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="F160" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -7821,13 +7823,13 @@
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E161" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="F161" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -7842,13 +7844,13 @@
         <v>500</v>
       </c>
       <c r="D162" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="E162" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="F162" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -7863,13 +7865,13 @@
         <v>1250</v>
       </c>
       <c r="D163" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="E163" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="F163" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -7884,13 +7886,13 @@
         <v>3000</v>
       </c>
       <c r="D164" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E164" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="F164" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -7905,13 +7907,13 @@
         <v>10000</v>
       </c>
       <c r="D165" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E165" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="F165" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -7926,13 +7928,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E166" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="F166" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -7947,13 +7949,13 @@
         <v>500</v>
       </c>
       <c r="D167" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E167" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="F167" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -7968,13 +7970,13 @@
         <v>1250</v>
       </c>
       <c r="D168" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="E168" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="F168" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -7989,13 +7991,13 @@
         <v>3000</v>
       </c>
       <c r="D169" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="E169" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="F169" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -8010,13 +8012,13 @@
         <v>10000</v>
       </c>
       <c r="D170" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="E170" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="F170" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -8031,13 +8033,13 @@
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E171" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="F171" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -8052,13 +8054,13 @@
         <v>500</v>
       </c>
       <c r="D172" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="E172" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="F172" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -8073,13 +8075,13 @@
         <v>1250</v>
       </c>
       <c r="D173" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="E173" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="F173" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -8094,13 +8096,13 @@
         <v>3000</v>
       </c>
       <c r="D174" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E174" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="F174" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -8115,13 +8117,13 @@
         <v>10000</v>
       </c>
       <c r="D175" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="E175" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="F175" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -8136,13 +8138,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="E176" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="F176" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -8157,13 +8159,13 @@
         <v>500</v>
       </c>
       <c r="D177" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E177" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="F177" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -8178,13 +8180,13 @@
         <v>1250</v>
       </c>
       <c r="D178" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="E178" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="F178" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -8199,13 +8201,13 @@
         <v>3000</v>
       </c>
       <c r="D179" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="E179" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="F179" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -8220,13 +8222,13 @@
         <v>10000</v>
       </c>
       <c r="D180" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E180" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="F180" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -8241,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="E181" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="F181" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -8262,13 +8264,13 @@
         <v>500</v>
       </c>
       <c r="D182" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E182" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="F182" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -8283,13 +8285,13 @@
         <v>1250</v>
       </c>
       <c r="D183" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="E183" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="F183" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -8304,13 +8306,13 @@
         <v>3000</v>
       </c>
       <c r="D184" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="E184" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="F184" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -8325,13 +8327,13 @@
         <v>10000</v>
       </c>
       <c r="D185" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E185" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="F185" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -8346,13 +8348,13 @@
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="E186" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="F186" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -8367,13 +8369,13 @@
         <v>500</v>
       </c>
       <c r="D187" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E187" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="F187" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -8388,13 +8390,13 @@
         <v>1250</v>
       </c>
       <c r="D188" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E188" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="F188" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -8409,13 +8411,13 @@
         <v>3000</v>
       </c>
       <c r="D189" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E189" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="F189" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -8430,13 +8432,13 @@
         <v>10000</v>
       </c>
       <c r="D190" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="E190" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="F190" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -8451,13 +8453,13 @@
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="E191" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="F191" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -8472,13 +8474,13 @@
         <v>500</v>
       </c>
       <c r="D192" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="E192" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="F192" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -8493,13 +8495,13 @@
         <v>1250</v>
       </c>
       <c r="D193" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E193" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="F193" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -8514,13 +8516,13 @@
         <v>3000</v>
       </c>
       <c r="D194" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="E194" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="F194" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -8535,13 +8537,13 @@
         <v>10000</v>
       </c>
       <c r="D195" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E195" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="F195" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -8556,13 +8558,13 @@
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E196" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="F196" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -8577,13 +8579,13 @@
         <v>500</v>
       </c>
       <c r="D197" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="E197" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="F197" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -8598,13 +8600,13 @@
         <v>1250</v>
       </c>
       <c r="D198" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="E198" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="F198" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -8619,13 +8621,13 @@
         <v>3000</v>
       </c>
       <c r="D199" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="E199" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="F199" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -8640,13 +8642,13 @@
         <v>10000</v>
       </c>
       <c r="D200" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="E200" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="F200" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -8661,13 +8663,13 @@
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="E201" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="F201" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -8682,13 +8684,13 @@
         <v>500</v>
       </c>
       <c r="D202" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="E202" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="F202" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -8703,13 +8705,13 @@
         <v>1250</v>
       </c>
       <c r="D203" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="E203" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="F203" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -8724,13 +8726,13 @@
         <v>3000</v>
       </c>
       <c r="D204" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E204" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="F204" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -8745,13 +8747,13 @@
         <v>10000</v>
       </c>
       <c r="D205" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E205" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="F205" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -8766,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="E206" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="F206" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -8787,13 +8789,13 @@
         <v>500</v>
       </c>
       <c r="D207" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="E207" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="F207" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -8808,13 +8810,13 @@
         <v>1250</v>
       </c>
       <c r="D208" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E208" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="F208" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -8829,13 +8831,13 @@
         <v>3000</v>
       </c>
       <c r="D209" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="E209" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="F209" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -8850,13 +8852,13 @@
         <v>10000</v>
       </c>
       <c r="D210" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E210" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="F210" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -8871,13 +8873,13 @@
         <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="E211" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="F211" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -8892,13 +8894,13 @@
         <v>500</v>
       </c>
       <c r="D212" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E212" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="F212" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -8913,13 +8915,13 @@
         <v>1250</v>
       </c>
       <c r="D213" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="E213" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="F213" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -8934,13 +8936,13 @@
         <v>3000</v>
       </c>
       <c r="D214" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="E214" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="F214" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -8955,13 +8957,13 @@
         <v>10000</v>
       </c>
       <c r="D215" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="E215" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="F215" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -8976,13 +8978,13 @@
         <v>0</v>
       </c>
       <c r="D216" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E216" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="F216" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -8997,13 +8999,13 @@
         <v>0</v>
       </c>
       <c r="D217" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="E217" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="F217" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="D218" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="E218" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="F218" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -9039,13 +9041,13 @@
         <v>0</v>
       </c>
       <c r="D219" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E219" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="F219" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -9060,13 +9062,13 @@
         <v>1250</v>
       </c>
       <c r="D220" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E220" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="F220" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -9081,13 +9083,13 @@
         <v>3000</v>
       </c>
       <c r="D221" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="E221" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="F221" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -9102,13 +9104,13 @@
         <v>10000</v>
       </c>
       <c r="D222" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E222" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="F222" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -9123,13 +9125,13 @@
         <v>0</v>
       </c>
       <c r="D223" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="E223" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="F223" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -9144,13 +9146,13 @@
         <v>1250</v>
       </c>
       <c r="D224" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="E224" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="F224" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -9165,13 +9167,13 @@
         <v>3000</v>
       </c>
       <c r="D225" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E225" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="F225" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -9186,13 +9188,13 @@
         <v>10000</v>
       </c>
       <c r="D226" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="E226" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="F226" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -9207,13 +9209,13 @@
         <v>0</v>
       </c>
       <c r="D227" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="E227" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="F227" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -9228,13 +9230,13 @@
         <v>1250</v>
       </c>
       <c r="D228" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E228" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="F228" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -9249,13 +9251,13 @@
         <v>3000</v>
       </c>
       <c r="D229" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="E229" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="F229" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -9270,13 +9272,13 @@
         <v>10000</v>
       </c>
       <c r="D230" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="E230" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="F230" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -9291,13 +9293,13 @@
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="E231" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="F231" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -9312,13 +9314,13 @@
         <v>500</v>
       </c>
       <c r="D232" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="E232" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="F232" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -9333,13 +9335,13 @@
         <v>1250</v>
       </c>
       <c r="D233" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="E233" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="F233" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -9354,13 +9356,13 @@
         <v>3000</v>
       </c>
       <c r="D234" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="E234" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="F234" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -9375,13 +9377,13 @@
         <v>10000</v>
       </c>
       <c r="D235" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="E235" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="F235" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -9396,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="D236" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="E236" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="F236" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -9417,13 +9419,13 @@
         <v>1250</v>
       </c>
       <c r="D237" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="E237" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="F237" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -9438,13 +9440,13 @@
         <v>3000</v>
       </c>
       <c r="D238" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="E238" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="F238" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -9459,13 +9461,13 @@
         <v>10000</v>
       </c>
       <c r="D239" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="E239" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="F239" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -9480,13 +9482,13 @@
         <v>0</v>
       </c>
       <c r="D240" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E240" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="F240" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -9501,13 +9503,13 @@
         <v>500</v>
       </c>
       <c r="D241" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="E241" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="F241" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -9522,13 +9524,13 @@
         <v>1250</v>
       </c>
       <c r="D242" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="E242" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="F242" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -9543,13 +9545,13 @@
         <v>3000</v>
       </c>
       <c r="D243" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="E243" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="F243" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -9564,13 +9566,13 @@
         <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="E244" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="F244" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -9585,13 +9587,13 @@
         <v>500</v>
       </c>
       <c r="D245" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="E245" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="F245" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -9606,13 +9608,13 @@
         <v>1250</v>
       </c>
       <c r="D246" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E246" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="F246" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -9627,13 +9629,13 @@
         <v>3000</v>
       </c>
       <c r="D247" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E247" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="F247" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -9648,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="D248" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="E248" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="F248" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -9669,13 +9671,13 @@
         <v>500</v>
       </c>
       <c r="D249" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="E249" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="F249" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -9690,13 +9692,13 @@
         <v>1250</v>
       </c>
       <c r="D250" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E250" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="F250" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -9711,13 +9713,13 @@
         <v>3000</v>
       </c>
       <c r="D251" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E251" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="F251" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -9732,13 +9734,13 @@
         <v>10000</v>
       </c>
       <c r="D252" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E252" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="F252" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -9753,13 +9755,13 @@
         <v>0</v>
       </c>
       <c r="D253" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E253" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="F253" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -9774,13 +9776,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="E254" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="F254" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -9795,13 +9797,13 @@
         <v>0</v>
       </c>
       <c r="D255" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E255" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="F255" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -9816,13 +9818,13 @@
         <v>0</v>
       </c>
       <c r="D256" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="E256" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="F256" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -9837,13 +9839,13 @@
         <v>1250</v>
       </c>
       <c r="D257" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E257" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="F257" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -9858,13 +9860,13 @@
         <v>3000</v>
       </c>
       <c r="D258" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E258" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="F258" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -9879,13 +9881,13 @@
         <v>10000</v>
       </c>
       <c r="D259" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E259" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="F259" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -9900,13 +9902,13 @@
         <v>0</v>
       </c>
       <c r="D260" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E260" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="F260" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -9921,13 +9923,13 @@
         <v>0</v>
       </c>
       <c r="D261" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="E261" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="F261" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -9942,13 +9944,13 @@
         <v>1250</v>
       </c>
       <c r="D262" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="E262" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="F262" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -9963,13 +9965,13 @@
         <v>3000</v>
       </c>
       <c r="D263" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="E263" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="F263" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -9984,13 +9986,13 @@
         <v>10000</v>
       </c>
       <c r="D264" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="E264" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="F264" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -10005,13 +10007,13 @@
         <v>0</v>
       </c>
       <c r="D265" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="E265" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="F265" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -10026,13 +10028,13 @@
         <v>1250</v>
       </c>
       <c r="D266" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="E266" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="F266" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -10047,13 +10049,13 @@
         <v>3000</v>
       </c>
       <c r="D267" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="E267" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="F267" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -10068,13 +10070,13 @@
         <v>10000</v>
       </c>
       <c r="D268" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="E268" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="F268" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -10089,13 +10091,13 @@
         <v>0</v>
       </c>
       <c r="D269" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="E269" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="F269" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -10110,13 +10112,13 @@
         <v>1250</v>
       </c>
       <c r="D270" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="E270" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="F270" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -10131,13 +10133,13 @@
         <v>3000</v>
       </c>
       <c r="D271" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="E271" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="F271" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -10152,13 +10154,13 @@
         <v>10000</v>
       </c>
       <c r="D272" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="E272" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="F272" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -10173,13 +10175,13 @@
         <v>0</v>
       </c>
       <c r="D273" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E273" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="F273" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -10194,13 +10196,13 @@
         <v>500</v>
       </c>
       <c r="D274" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="E274" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="F274" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -10215,13 +10217,13 @@
         <v>1250</v>
       </c>
       <c r="D275" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="E275" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="F275" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -10236,13 +10238,13 @@
         <v>3000</v>
       </c>
       <c r="D276" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="E276" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="F276" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -10257,13 +10259,13 @@
         <v>10000</v>
       </c>
       <c r="D277" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="E277" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="F277" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -10278,13 +10280,13 @@
         <v>0</v>
       </c>
       <c r="D278" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="E278" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="F278" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -10299,13 +10301,13 @@
         <v>1250</v>
       </c>
       <c r="D279" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="E279" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="F279" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -10320,13 +10322,13 @@
         <v>3000</v>
       </c>
       <c r="D280" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="E280" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="F280" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -10341,13 +10343,13 @@
         <v>10000</v>
       </c>
       <c r="D281" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="E281" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="F281" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -10362,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="D282" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="E282" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="F282" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -10383,13 +10385,13 @@
         <v>500</v>
       </c>
       <c r="D283" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="E283" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="F283" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -10404,13 +10406,13 @@
         <v>1250</v>
       </c>
       <c r="D284" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="E284" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="F284" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -10425,13 +10427,13 @@
         <v>3000</v>
       </c>
       <c r="D285" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="E285" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="F285" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -10446,13 +10448,13 @@
         <v>0</v>
       </c>
       <c r="D286" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="E286" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="F286" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -10467,13 +10469,13 @@
         <v>0</v>
       </c>
       <c r="D287" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="E287" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="F287" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -10488,13 +10490,13 @@
         <v>500</v>
       </c>
       <c r="D288" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="E288" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="F288" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -10509,13 +10511,13 @@
         <v>1250</v>
       </c>
       <c r="D289" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="E289" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="F289" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -10530,13 +10532,13 @@
         <v>3000</v>
       </c>
       <c r="D290" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="E290" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="F290" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -10551,13 +10553,13 @@
         <v>0</v>
       </c>
       <c r="D291" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E291" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="F291" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -10572,13 +10574,13 @@
         <v>0</v>
       </c>
       <c r="D292" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="E292" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="F292" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -10593,13 +10595,13 @@
         <v>1250</v>
       </c>
       <c r="D293" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="E293" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="F293" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -10614,13 +10616,13 @@
         <v>3000</v>
       </c>
       <c r="D294" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="E294" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="F294" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -10635,13 +10637,13 @@
         <v>10000</v>
       </c>
       <c r="D295" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="E295" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="F295" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -10656,13 +10658,13 @@
         <v>0</v>
       </c>
       <c r="D296" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="E296" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="F296" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="D297" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="E297" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="F297" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -10698,13 +10700,13 @@
         <v>500</v>
       </c>
       <c r="D298" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E298" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="F298" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -10719,13 +10721,13 @@
         <v>1250</v>
       </c>
       <c r="D299" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="E299" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="F299" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -10740,13 +10742,13 @@
         <v>3000</v>
       </c>
       <c r="D300" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="E300" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="F300" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -10761,13 +10763,13 @@
         <v>0</v>
       </c>
       <c r="D301" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="E301" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="F301" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -10782,13 +10784,13 @@
         <v>500</v>
       </c>
       <c r="D302" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E302" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="F302" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -10803,13 +10805,13 @@
         <v>1250</v>
       </c>
       <c r="D303" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="E303" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="F303" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -10824,13 +10826,13 @@
         <v>3000</v>
       </c>
       <c r="D304" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="E304" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="F304" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -10845,13 +10847,13 @@
         <v>0</v>
       </c>
       <c r="D305" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E305" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="F305" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
@@ -10866,13 +10868,13 @@
         <v>0</v>
       </c>
       <c r="D306" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="E306" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="F306" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -10887,13 +10889,13 @@
         <v>1250</v>
       </c>
       <c r="D307" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E307" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="F307" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -10908,13 +10910,13 @@
         <v>3000</v>
       </c>
       <c r="D308" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="E308" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="F308" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -10929,13 +10931,13 @@
         <v>10000</v>
       </c>
       <c r="D309" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="E309" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="F309" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -10950,13 +10952,13 @@
         <v>0</v>
       </c>
       <c r="D310" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E310" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="F310" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -10971,13 +10973,13 @@
         <v>500</v>
       </c>
       <c r="D311" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="E311" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="F311" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -10992,13 +10994,13 @@
         <v>1250</v>
       </c>
       <c r="D312" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E312" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="F312" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
@@ -11013,13 +11015,13 @@
         <v>3000</v>
       </c>
       <c r="D313" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E313" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="F313" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -11034,13 +11036,13 @@
         <v>0</v>
       </c>
       <c r="D314" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="E314" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="F314" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -11055,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="D315" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="E315" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="F315" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -11076,13 +11078,13 @@
         <v>500</v>
       </c>
       <c r="D316" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="E316" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="F316" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -11097,13 +11099,13 @@
         <v>1250</v>
       </c>
       <c r="D317" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="E317" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="F317" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -11118,13 +11120,13 @@
         <v>3000</v>
       </c>
       <c r="D318" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E318" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="F318" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -11139,13 +11141,13 @@
         <v>0</v>
       </c>
       <c r="D319" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="E319" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="F319" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
@@ -11160,13 +11162,13 @@
         <v>0</v>
       </c>
       <c r="D320" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="E320" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="F320" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -11181,13 +11183,13 @@
         <v>0</v>
       </c>
       <c r="D321" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="E321" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="F321" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -11202,13 +11204,13 @@
         <v>500</v>
       </c>
       <c r="D322" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="E322" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="F322" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -11223,13 +11225,13 @@
         <v>1250</v>
       </c>
       <c r="D323" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E323" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="F323" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -11244,13 +11246,13 @@
         <v>3000</v>
       </c>
       <c r="D324" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E324" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="F324" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -11265,13 +11267,13 @@
         <v>10000</v>
       </c>
       <c r="D325" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="E325" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="F325" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -11286,13 +11288,13 @@
         <v>0</v>
       </c>
       <c r="D326" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="E326" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="F326" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -11307,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="D327" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="E327" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="F327" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -11328,13 +11330,13 @@
         <v>0</v>
       </c>
       <c r="D328" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="E328" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="F328" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -11349,13 +11351,13 @@
         <v>500</v>
       </c>
       <c r="D329" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="E329" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="F329" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -11370,13 +11372,13 @@
         <v>1250</v>
       </c>
       <c r="D330" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E330" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="F330" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -11391,13 +11393,13 @@
         <v>3000</v>
       </c>
       <c r="D331" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="E331" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="F331" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -11412,13 +11414,13 @@
         <v>10000</v>
       </c>
       <c r="D332" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E332" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="F332" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -11433,13 +11435,13 @@
         <v>0</v>
       </c>
       <c r="D333" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E333" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="F333" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -11454,13 +11456,13 @@
         <v>0</v>
       </c>
       <c r="D334" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="E334" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="F334" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -11475,13 +11477,13 @@
         <v>0</v>
       </c>
       <c r="D335" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E335" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="F335" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -11496,13 +11498,13 @@
         <v>0</v>
       </c>
       <c r="D336" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="E336" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="F336" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -11517,13 +11519,13 @@
         <v>0</v>
       </c>
       <c r="D337" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="E337" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="F337" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -11538,13 +11540,13 @@
         <v>0</v>
       </c>
       <c r="D338" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="E338" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="F338" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>

--- a/Papilddati/EGV_aprakstiem_20241227.xlsx
+++ b/Papilddati/EGV_aprakstiem_20241227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrisavotins/Documents/projekti/LVAFA_SDMs/Darbam/PutnuSDMs_gramata/Papilddati/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53421D7C-1E41-134D-BE32-88827A07DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1B4DCD-322D-9F47-BAEF-0DB74D4556EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35900" yWindow="500" windowWidth="25480" windowHeight="22680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35900" yWindow="500" windowWidth="25480" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4064,40 +4064,40 @@
     <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.11.01</t>
   </si>
   <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=500m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=1250m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=3000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=10000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=500m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=1250m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=3000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām lauku klasēm r=10000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m)  Šenona daudzveidības indekss detalizētajām mežu klasēm r=500m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām mežu klasēm r=1250m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām mežu klasēm r=3000m ap analīzes šūnas centru</t>
-  </si>
-  <si>
-    <t>β-līmeņa (vidējais α-līmeņa 500x500m) Šenona daudzveidības indekss detalizētajām mežu klasēm r=10000m ap analīzes šūnas centru</t>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=500m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=1250m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=3000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss vispārīgajām ainavas klasēm r=10000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss detalizētajām lauku klasēm r=500m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss detalizētajām lauku klasēm r=1250m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss detalizētajām lauku klasēm r=3000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss detalizētajām lauku klasēm r=10000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss detalizētajām mežu klasēm r=500m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss detalizētajām mežu klasēm r=1250m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss detalizētajām mežu klasēm r=3000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss detalizētajām mežu klasēm r=10000m ap analīzes šūnas centru</t>
   </si>
 </sst>
 </file>
@@ -4439,8 +4439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Papilddati/EGV_aprakstiem_20241227.xlsx
+++ b/Papilddati/EGV_aprakstiem_20241227.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrisavotins/Documents/projekti/LVAFA_SDMs/Darbam/PutnuSDMs_gramata/Papilddati/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrisavotins/Documents/projekti/LVAFA_SDMs/Darbam/LVAFA_SDMs/Rastri_100m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1B4DCD-322D-9F47-BAEF-0DB74D4556EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73DCD4-8205-1742-8457-6406CA14C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35900" yWindow="500" windowWidth="25480" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$E$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$E$339</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1361">
   <si>
     <t>Ainava_Apbuve_cell.tif</t>
   </si>
@@ -4098,13 +4099,34 @@
   </si>
   <si>
     <t>Vidējais α-līmeņa (500x500 m šūnās) Šenona daudzveidības indekss detalizētajām mežu klasēm r=10000m ap analīzes šūnas centru</t>
+  </si>
+  <si>
+    <t>Dist_Udeni-vid_cell.tif</t>
+  </si>
+  <si>
+    <t>Dist_Udeni-vid</t>
+  </si>
+  <si>
+    <t>Attālums līdz ūdensobjektiem (jebkādiem), vidējais analīzes šūnā</t>
+  </si>
+  <si>
+    <t>https://aavotins.github.io/PutnuSDMs_gramata/Chapter5.html#Chapter5.5.07</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KLXrCLuLXGBgmMVbbviP5xdi6MGZl8Yi/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>1KLXrCLuLXGBgmMVbbviP5xdi6MGZl8Yi</t>
+  </si>
+  <si>
+    <t>https://drive.usercontent.google.com/u/0/uc?id=1KLXrCLuLXGBgmMVbbviP5xdi6MGZl8Yi&amp;export=download</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4114,6 +4136,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4136,13 +4166,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4437,10 +4471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F338"/>
+  <dimension ref="A1:F339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5821,7 +5855,7 @@
         <v>320</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="1">_xlfn.TEXTBEFORE(A66,"_",2)</f>
+        <f t="shared" ref="B66:B130" si="1">_xlfn.TEXTBEFORE(A66,"_",2)</f>
         <v>Dist_AtkritumuPoligoni-vid</v>
       </c>
       <c r="C66">
@@ -5881,5671 +5915,5691 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>323</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B70" t="str">
         <f t="shared" si="1"/>
         <v>Dist_ZalajiIlggadigie-vid</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>0</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>352</v>
       </c>
-      <c r="E69" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E70" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F70" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>324</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B71" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDVI-LYmed-iqr</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>0</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>353</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>1073</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>325</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B72" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDVI-LYmed-vid</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>0</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>354</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>1074</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>326</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B73" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDVI-STiqr-med</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>0</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>361</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>1075</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>327</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B74" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDVI-STmed-iqr</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>0</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>362</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>1076</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>328</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B75" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDVI-STmed-vid</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>0</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>363</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>1077</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>329</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B76" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDVI-STp25-min</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>0</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>364</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>1078</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>330</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B77" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDVI-STp75-max</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>0</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>365</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>1079</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>331</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B78" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDWI-LYmed-iqr</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>0</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>355</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>1080</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>332</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B79" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDWI-LYmed-vid</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>0</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>356</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>1081</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>333</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B80" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDWI-STiqr-med</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>0</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>360</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>1082</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>334</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B81" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDWI-STmed-vid</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>0</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>357</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>1083</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>335</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B82" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDWI-STp25-min</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>0</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>358</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>1084</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>336</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B83" t="str">
         <f t="shared" si="1"/>
         <v>EO_NDWI-STp75-max</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>359</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F82" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" t="str">
-        <f t="shared" si="1"/>
-        <v>Lauku_AramLabibaVasaraji</v>
-      </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="E83" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F83" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramLabibaVasaraji</v>
       </c>
       <c r="C84">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E84" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F84" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramLabibaVasaraji</v>
       </c>
       <c r="C85">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E85" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F85" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramLabibaVasaraji</v>
       </c>
       <c r="C86">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D86" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E86" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F86" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramLabibaVasaraji</v>
       </c>
       <c r="C87">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D87" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E87" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F87" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>Lauku_AramLabibaZiemaji</v>
+        <v>Lauku_AramLabibaVasaraji</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D88" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E88" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F88" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramLabibaZiemaji</v>
       </c>
       <c r="C89">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E89" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F89" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramLabibaZiemaji</v>
       </c>
       <c r="C90">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E90" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F90" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramLabibaZiemaji</v>
       </c>
       <c r="C91">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D91" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E91" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F91" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramLabibaZiemaji</v>
       </c>
       <c r="C92">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D92" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E92" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F92" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>Lauku_AramParejas</v>
+        <v>Lauku_AramLabibaZiemaji</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D93" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E93" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F93" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramParejas</v>
       </c>
       <c r="C94">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E94" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F94" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramParejas</v>
       </c>
       <c r="C95">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D95" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E95" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F95" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramParejas</v>
       </c>
       <c r="C96">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E96" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F96" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>337</v>
+        <v>68</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramParejas</v>
       </c>
       <c r="C97">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E97" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F97" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>Lauku_AramVaguRusinamas</v>
+        <v>Lauku_AramParejas</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D98" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E98" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F98" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVaguRusinamas</v>
       </c>
       <c r="C99">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E99" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F99" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVaguRusinamas</v>
       </c>
       <c r="C100">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D100" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E100" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F100" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVaguRusinamas</v>
       </c>
       <c r="C101">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E101" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F101" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVaguRusinamas</v>
       </c>
       <c r="C102">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D102" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E102" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F102" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>Lauku_AramVasarasRapsiUTML</v>
+        <v>Lauku_AramVaguRusinamas</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D103" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E103" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F103" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVasarasRapsiUTML</v>
       </c>
       <c r="C104">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E104" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F104" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVasarasRapsiUTML</v>
       </c>
       <c r="C105">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D105" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E105" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F105" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVasarasRapsiUTML</v>
       </c>
       <c r="C106">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D106" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E106" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F106" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVasarasRapsiUTML</v>
       </c>
       <c r="C107">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E107" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F107" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>Lauku_AramVisas</v>
+        <v>Lauku_AramVasarasRapsiUTML</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E108" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F108" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVisas</v>
       </c>
       <c r="C109">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E109" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F109" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVisas</v>
       </c>
       <c r="C110">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E110" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F110" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVisas</v>
       </c>
       <c r="C111">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D111" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E111" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F111" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramVisas</v>
       </c>
       <c r="C112">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D112" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E112" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F112" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>Lauku_AramZiemasRapsi</v>
+        <v>Lauku_AramVisas</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D113" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E113" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F113" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramZiemasRapsi</v>
       </c>
       <c r="C114">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E114" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F114" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramZiemasRapsi</v>
       </c>
       <c r="C115">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D115" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E115" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F115" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramZiemasRapsi</v>
       </c>
       <c r="C116">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D116" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E116" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F116" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AramZiemasRapsi</v>
       </c>
       <c r="C117">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D117" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E117" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F117" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>Lauku_AugludarziLAD</v>
+        <v>Lauku_AramZiemasRapsi</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D118" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E118" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F118" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AugludarziLAD</v>
       </c>
       <c r="C119">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E119" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F119" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AugludarziLAD</v>
       </c>
       <c r="C120">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D120" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E120" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F120" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_AugludarziLAD</v>
       </c>
       <c r="C121">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D121" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E121" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F121" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v>Lauku_Bloki</v>
+        <v>Lauku_AugludarziLAD</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D122" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E122" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F122" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_Bloki</v>
       </c>
       <c r="C123">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E123" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F123" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_Bloki</v>
       </c>
       <c r="C124">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D124" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E124" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F124" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_Bloki</v>
       </c>
       <c r="C125">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D125" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E125" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F125" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_Bloki</v>
       </c>
       <c r="C126">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D126" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E126" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F126" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v>Lauku_KrumiLAD</v>
+        <v>Lauku_Bloki</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D127" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E127" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F127" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_KrumiLAD</v>
       </c>
       <c r="C128">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E128" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F128" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
         <v>Lauku_KrumiLAD</v>
       </c>
       <c r="C129">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D129" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E129" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F129" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="2">_xlfn.TEXTBEFORE(A130,"_",2)</f>
+        <f t="shared" si="1"/>
         <v>Lauku_KrumiLAD</v>
       </c>
       <c r="C130">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E130" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F130" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="2"/>
-        <v>Lauku_Papuves</v>
+        <f t="shared" ref="B131:B194" si="2">_xlfn.TEXTBEFORE(A131,"_",2)</f>
+        <v>Lauku_KrumiLAD</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D131" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E131" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F131" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_Papuves</v>
       </c>
       <c r="C132">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E132" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F132" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_Papuves</v>
       </c>
       <c r="C133">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D133" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E133" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F133" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_Papuves</v>
       </c>
       <c r="C134">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D134" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E134" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F134" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_Papuves</v>
       </c>
       <c r="C135">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D135" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E135" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F135" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
-        <v>Lauku_ZalajiBezatbNELAD</v>
+        <v>Lauku_Papuves</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D136" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E136" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F136" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiBezatbNELAD</v>
       </c>
       <c r="C137">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E137" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F137" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiBezatbNELAD</v>
       </c>
       <c r="C138">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D138" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E138" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F138" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiBezatbNELAD</v>
       </c>
       <c r="C139">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D139" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E139" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F139" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiBezatbNELAD</v>
       </c>
       <c r="C140">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D140" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E140" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F140" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
-        <v>Lauku_ZalajiIlggadigie</v>
+        <v>Lauku_ZalajiBezatbNELAD</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D141" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E141" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F141" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiIlggadigie</v>
       </c>
       <c r="C142">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E142" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F142" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiIlggadigie</v>
       </c>
       <c r="C143">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D143" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E143" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F143" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiIlggadigie</v>
       </c>
       <c r="C144">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E144" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F144" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiIlggadigie</v>
       </c>
       <c r="C145">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D145" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E145" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F145" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
-        <v>Lauku_ZalajiKultivetie</v>
+        <v>Lauku_ZalajiIlggadigie</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D146" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E146" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F146" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiKultivetie</v>
       </c>
       <c r="C147">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E147" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F147" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiKultivetie</v>
       </c>
       <c r="C148">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D148" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E148" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F148" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiKultivetie</v>
       </c>
       <c r="C149">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D149" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E149" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F149" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiKultivetie</v>
       </c>
       <c r="C150">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D150" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E150" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F150" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
-        <v>Lauku_ZalajiVisi</v>
+        <v>Lauku_ZalajiKultivetie</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D151" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E151" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F151" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiVisi</v>
       </c>
       <c r="C152">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E152" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F152" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiVisi</v>
       </c>
       <c r="C153">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D153" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E153" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F153" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiVisi</v>
       </c>
       <c r="C154">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D154" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E154" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F154" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
         <v>Lauku_ZalajiVisi</v>
       </c>
       <c r="C155">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D155" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E155" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F155" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
-        <v>Malas_Apbuve-Koki</v>
+        <v>Lauku_ZalajiVisi</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D156" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E156" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F156" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Apbuve-Koki</v>
       </c>
       <c r="C157">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E157" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F157" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Apbuve-Koki</v>
       </c>
       <c r="C158">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D158" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E158" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F158" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Apbuve-Koki</v>
       </c>
       <c r="C159">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D159" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E159" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F159" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Apbuve-Koki</v>
       </c>
       <c r="C160">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D160" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E160" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F160" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
-        <v>Malas_Apbuve-LIZ</v>
+        <v>Malas_Apbuve-Koki</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D161" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E161" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F161" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Apbuve-LIZ</v>
       </c>
       <c r="C162">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E162" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F162" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Apbuve-LIZ</v>
       </c>
       <c r="C163">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D163" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E163" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F163" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Apbuve-LIZ</v>
       </c>
       <c r="C164">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D164" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E164" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F164" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Apbuve-LIZ</v>
       </c>
       <c r="C165">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D165" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E165" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F165" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>128</v>
+        <v>314</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>
-        <v>Malas_AramzemesY</v>
+        <v>Malas_Apbuve-LIZ</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D166" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E166" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F166" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="2"/>
         <v>Malas_AramzemesY</v>
       </c>
       <c r="C167">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E167" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F167" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="2"/>
         <v>Malas_AramzemesY</v>
       </c>
       <c r="C168">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D168" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E168" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F168" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="2"/>
         <v>Malas_AramzemesY</v>
       </c>
       <c r="C169">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D169" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E169" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F169" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="2"/>
         <v>Malas_AramzemesY</v>
       </c>
       <c r="C170">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D170" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E170" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F170" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="2"/>
-        <v>Malas_Celi</v>
+        <v>Malas_AramzemesY</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D171" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E171" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F171" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Celi</v>
       </c>
       <c r="C172">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E172" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F172" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Celi</v>
       </c>
       <c r="C173">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D173" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E173" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F173" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Celi</v>
       </c>
       <c r="C174">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D174" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E174" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F174" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="2"/>
         <v>Malas_Celi</v>
       </c>
       <c r="C175">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D175" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E175" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F175" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="2"/>
-        <v>Malas_KokiY</v>
+        <v>Malas_Celi</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D176" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E176" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F176" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="2"/>
         <v>Malas_KokiY</v>
       </c>
       <c r="C177">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E177" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F177" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="2"/>
         <v>Malas_KokiY</v>
       </c>
       <c r="C178">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D178" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E178" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F178" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="2"/>
         <v>Malas_KokiY</v>
       </c>
       <c r="C179">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D179" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E179" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F179" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="2"/>
         <v>Malas_KokiY</v>
       </c>
       <c r="C180">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D180" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E180" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F180" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="2"/>
-        <v>Malas_LIZzemieKoki-Koki</v>
+        <v>Malas_KokiY</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D181" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E181" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F181" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="2"/>
         <v>Malas_LIZzemieKoki-Koki</v>
       </c>
       <c r="C182">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E182" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F182" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="2"/>
         <v>Malas_LIZzemieKoki-Koki</v>
       </c>
       <c r="C183">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D183" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E183" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F183" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="2"/>
         <v>Malas_LIZzemieKoki-Koki</v>
       </c>
       <c r="C184">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D184" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E184" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F184" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="2"/>
         <v>Malas_LIZzemieKoki-Koki</v>
       </c>
       <c r="C185">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D185" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E185" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F185" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="2"/>
-        <v>Malas_NiedrajiBebraines-Udens</v>
+        <v>Malas_LIZzemieKoki-Koki</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D186" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E186" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F186" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="2"/>
         <v>Malas_NiedrajiBebraines-Udens</v>
       </c>
       <c r="C187">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E187" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F187" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="2"/>
         <v>Malas_NiedrajiBebraines-Udens</v>
       </c>
       <c r="C188">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D188" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E188" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F188" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="2"/>
         <v>Malas_NiedrajiBebraines-Udens</v>
       </c>
       <c r="C189">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D189" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E189" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F189" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="2"/>
         <v>Malas_NiedrajiBebraines-Udens</v>
       </c>
       <c r="C190">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D190" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E190" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F190" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>143</v>
+        <v>304</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="2"/>
-        <v>Malas_PieaugParaugY</v>
+        <v>Malas_NiedrajiBebraines-Udens</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D191" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E191" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F191" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="2"/>
         <v>Malas_PieaugParaugY</v>
       </c>
       <c r="C192">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E192" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F192" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="2"/>
         <v>Malas_PieaugParaugY</v>
       </c>
       <c r="C193">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D193" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E193" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F193" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B257" si="3">_xlfn.TEXTBEFORE(A194,"_",2)</f>
+        <f t="shared" si="2"/>
         <v>Malas_PieaugParaugY</v>
       </c>
       <c r="C194">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D194" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E194" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F194" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>146</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" ref="B195:B258" si="3">_xlfn.TEXTBEFORE(A195,"_",2)</f>
+        <v>Malas_PieaugParaugY</v>
+      </c>
+      <c r="C195">
+        <v>3000</v>
+      </c>
+      <c r="D195" t="s">
+        <v>522</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F195" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>144</v>
       </c>
-      <c r="B195" t="str">
+      <c r="B196" t="str">
         <f t="shared" si="3"/>
         <v>Malas_PieaugParaugY</v>
       </c>
-      <c r="C195">
+      <c r="C196">
         <v>10000</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D196" t="s">
         <v>523</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E196" t="s">
         <v>1198</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F196" t="s">
         <v>861</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>288</v>
-      </c>
-      <c r="B196" t="str">
-        <f t="shared" si="3"/>
-        <v>Malas_Udens-LIZ</v>
-      </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196" t="s">
-        <v>524</v>
-      </c>
-      <c r="E196" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F196" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="3"/>
         <v>Malas_Udens-LIZ</v>
       </c>
       <c r="C197">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E197" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F197" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="3"/>
         <v>Malas_Udens-LIZ</v>
       </c>
       <c r="C198">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D198" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E198" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F198" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="3"/>
         <v>Malas_Udens-LIZ</v>
       </c>
       <c r="C199">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D199" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E199" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F199" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="3"/>
         <v>Malas_Udens-LIZ</v>
       </c>
       <c r="C200">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D200" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E200" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F200" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="3"/>
-        <v>Malas_Udens-Zalaji</v>
+        <v>Malas_Udens-LIZ</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D201" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E201" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F201" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="3"/>
         <v>Malas_Udens-Zalaji</v>
       </c>
       <c r="C202">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E202" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F202" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="3"/>
         <v>Malas_Udens-Zalaji</v>
       </c>
       <c r="C203">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D203" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E203" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F203" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="3"/>
         <v>Malas_Udens-Zalaji</v>
       </c>
       <c r="C204">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D204" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E204" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F204" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="3"/>
         <v>Malas_Udens-Zalaji</v>
       </c>
       <c r="C205">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D205" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E205" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F205" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="3"/>
-        <v>Malas_UdensY</v>
+        <v>Malas_Udens-Zalaji</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D206" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E206" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F206" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="3"/>
         <v>Malas_UdensY</v>
       </c>
       <c r="C207">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E207" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F207" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="3"/>
         <v>Malas_UdensY</v>
       </c>
       <c r="C208">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D208" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E208" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F208" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="3"/>
         <v>Malas_UdensY</v>
       </c>
       <c r="C209">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D209" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E209" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F209" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="3"/>
         <v>Malas_UdensY</v>
       </c>
       <c r="C210">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D210" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E210" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F210" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="3"/>
-        <v>Malas_ZalajiY</v>
+        <v>Malas_UdensY</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D211" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E211" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F211" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="3"/>
         <v>Malas_ZalajiY</v>
       </c>
       <c r="C212">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E212" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F212" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="3"/>
         <v>Malas_ZalajiY</v>
       </c>
       <c r="C213">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D213" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E213" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F213" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="3"/>
         <v>Malas_ZalajiY</v>
       </c>
       <c r="C214">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D214" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E214" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F214" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="3"/>
         <v>Malas_ZalajiY</v>
       </c>
       <c r="C215">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D215" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E215" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F215" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>285</v>
+        <v>154</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_ApsuKraja-sum</v>
+        <v>Malas_ZalajiY</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D216" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E216" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F216" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_BerzuKraja-sum</v>
+        <v>Mezi_ApsuKraja-sum</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
       <c r="D217" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E217" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F217" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_EgluKraja-sum</v>
+        <v>Mezi_BerzuKraja-sum</v>
       </c>
       <c r="C218">
         <v>0</v>
       </c>
       <c r="D218" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E218" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F218" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_EitrPurv</v>
+        <v>Mezi_EgluKraja-sum</v>
       </c>
       <c r="C219">
         <v>0</v>
       </c>
       <c r="D219" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="E219" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F219" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_EitrPurv</v>
       </c>
       <c r="C220">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D220" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E220" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F220" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_EitrPurv</v>
       </c>
       <c r="C221">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D221" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E221" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F221" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_EitrPurv</v>
       </c>
       <c r="C222">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D222" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E222" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F222" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_EitrSaus</v>
+        <v>Mezi_EitrPurv</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D223" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E223" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F223" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_EitrSaus</v>
       </c>
       <c r="C224">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E224" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F224" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_EitrSaus</v>
       </c>
       <c r="C225">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D225" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E225" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F225" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_EitrSaus</v>
       </c>
       <c r="C226">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D226" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E226" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F226" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_EitrSus</v>
+        <v>Mezi_EitrSaus</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D227" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E227" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F227" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_EitrSus</v>
       </c>
       <c r="C228">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D228" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E228" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F228" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_EitrSus</v>
       </c>
       <c r="C229">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D229" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E229" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F229" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_EitrSus</v>
       </c>
       <c r="C230">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D230" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E230" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F230" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_IzcUNzem5m</v>
+        <v>Mezi_EitrSus</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D231" t="s">
-        <v>662</v>
+        <v>599</v>
       </c>
       <c r="E231" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F231" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_IzcUNzem5m</v>
       </c>
       <c r="C232">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E232" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F232" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_IzcUNzem5m</v>
       </c>
       <c r="C233">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D233" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E233" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F233" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_IzcUNzem5m</v>
       </c>
       <c r="C234">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D234" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E234" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F234" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_IzcUNzem5m</v>
       </c>
       <c r="C235">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D235" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E235" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F235" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_Jauktukoku</v>
+        <v>Mezi_IzcUNzem5m</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D236" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="E236" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F236" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B237" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_Jauktukoku</v>
       </c>
       <c r="C237">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D237" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E237" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F237" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B238" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_Jauktukoku</v>
       </c>
       <c r="C238">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D238" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E238" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F238" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_Jauktukoku</v>
       </c>
       <c r="C239">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D239" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E239" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F239" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B240" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_JauktukokuJaunas</v>
+        <v>Mezi_Jauktukoku</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D240" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="E240" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F240" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_JauktukokuJaunas</v>
       </c>
       <c r="C241">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D241" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E241" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F241" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_JauktukokuJaunas</v>
       </c>
       <c r="C242">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D242" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E242" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F242" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_JauktukokuJaunas</v>
       </c>
       <c r="C243">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D243" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E243" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F243" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_JauktukokuVecas</v>
+        <v>Mezi_JauktukokuJaunas</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D244" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="E244" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F244" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_JauktukokuVecas</v>
       </c>
       <c r="C245">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D245" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E245" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F245" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_JauktukokuVecas</v>
       </c>
       <c r="C246">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D246" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E246" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F246" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_JauktukokuVecas</v>
       </c>
       <c r="C247">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D247" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E247" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F247" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_Jaunaudzes5mKrumaji</v>
+        <v>Mezi_JauktukokuVecas</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D248" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E248" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F248" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_Jaunaudzes5mKrumaji</v>
       </c>
       <c r="C249">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E249" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F249" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_Jaunaudzes5mKrumaji</v>
       </c>
       <c r="C250">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D250" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E250" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F250" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_Jaunaudzes5mKrumaji</v>
       </c>
       <c r="C251">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D251" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E251" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F251" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_Jaunaudzes5mKrumaji</v>
       </c>
       <c r="C252">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D252" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E252" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F252" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_KopejaKraja-sum</v>
+        <v>Mezi_Jaunaudzes5mKrumaji</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D253" t="s">
-        <v>545</v>
+        <v>661</v>
       </c>
       <c r="E253" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F253" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_LielakaisDiametrs-max</v>
+        <v>Mezi_KopejaKraja-sum</v>
       </c>
       <c r="C254">
         <v>0</v>
       </c>
       <c r="D254" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E254" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F254" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_MelnalksnuKraja-sum</v>
+        <v>Mezi_LielakaisDiametrs-max</v>
       </c>
       <c r="C255">
         <v>0</v>
       </c>
       <c r="D255" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="E255" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F255" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="3"/>
-        <v>Mezi_MezoSaus</v>
+        <v>Mezi_MelnalksnuKraja-sum</v>
       </c>
       <c r="C256">
         <v>0</v>
       </c>
       <c r="D256" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="E256" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F256" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="3"/>
         <v>Mezi_MezoSaus</v>
       </c>
       <c r="C257">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D257" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E257" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F257" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B258" t="str">
-        <f t="shared" ref="B258:B321" si="4">_xlfn.TEXTBEFORE(A258,"_",2)</f>
+        <f t="shared" si="3"/>
         <v>Mezi_MezoSaus</v>
       </c>
       <c r="C258">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D258" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E258" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F258" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>195</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" ref="B259:B322" si="4">_xlfn.TEXTBEFORE(A259,"_",2)</f>
+        <v>Mezi_MezoSaus</v>
+      </c>
+      <c r="C259">
+        <v>3000</v>
+      </c>
+      <c r="D259" t="s">
+        <v>602</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F259" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
         <v>193</v>
       </c>
-      <c r="B259" t="str">
+      <c r="B260" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_MezoSaus</v>
       </c>
-      <c r="C259">
+      <c r="C260">
         <v>10000</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D260" t="s">
         <v>603</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E260" t="s">
         <v>1262</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F260" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>281</v>
       </c>
-      <c r="B260" t="str">
+      <c r="B261" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_NogabalaVecumaProp-vid</v>
       </c>
-      <c r="C260">
-        <v>0</v>
-      </c>
-      <c r="D260" t="s">
-        <v>550</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F260" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>196</v>
-      </c>
-      <c r="B261" t="str">
-        <f t="shared" si="4"/>
-        <v>Mezi_OligoPurv</v>
-      </c>
       <c r="C261">
         <v>0</v>
       </c>
       <c r="D261" t="s">
-        <v>604</v>
+        <v>550</v>
       </c>
       <c r="E261" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F261" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B262" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_OligoPurv</v>
       </c>
       <c r="C262">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D262" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E262" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F262" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B263" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_OligoPurv</v>
       </c>
       <c r="C263">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D263" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E263" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F263" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B264" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_OligoPurv</v>
       </c>
       <c r="C264">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D264" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="E264" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F264" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B265" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_OligoSaus</v>
+        <v>Mezi_OligoPurv</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D265" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E265" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F265" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B266" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_OligoSaus</v>
       </c>
       <c r="C266">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D266" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E266" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F266" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B267" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_OligoSaus</v>
       </c>
       <c r="C267">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D267" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E267" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F267" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B268" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_OligoSaus</v>
       </c>
       <c r="C268">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D268" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E268" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F268" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B269" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_OligoSus</v>
+        <v>Mezi_OligoSaus</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D269" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E269" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F269" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B270" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_OligoSus</v>
       </c>
       <c r="C270">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D270" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E270" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F270" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B271" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_OligoSus</v>
       </c>
       <c r="C271">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D271" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E271" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F271" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B272" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_OligoSus</v>
       </c>
       <c r="C272">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D272" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E272" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F272" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B273" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_PieaugParaug</v>
+        <v>Mezi_OligoSus</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D273" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="E273" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F273" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B274" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_PieaugParaug</v>
       </c>
       <c r="C274">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D274" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E274" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F274" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B275" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_PieaugParaug</v>
       </c>
       <c r="C275">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D275" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E275" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F275" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B276" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_PieaugParaug</v>
       </c>
       <c r="C276">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D276" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E276" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F276" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B277" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_PieaugParaug</v>
       </c>
       <c r="C277">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D277" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E277" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F277" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B278" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_Platlapju</v>
+        <v>Mezi_PieaugParaug</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D278" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="E278" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F278" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B279" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_Platlapju</v>
       </c>
       <c r="C279">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D279" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E279" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F279" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B280" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_Platlapju</v>
       </c>
       <c r="C280">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D280" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E280" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F280" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B281" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_Platlapju</v>
       </c>
       <c r="C281">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D281" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E281" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F281" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B282" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_PlatlapjuJaunas</v>
+        <v>Mezi_Platlapju</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D282" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="E282" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F282" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B283" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_PlatlapjuJaunas</v>
       </c>
       <c r="C283">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D283" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E283" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F283" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B284" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_PlatlapjuJaunas</v>
       </c>
       <c r="C284">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D284" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E284" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F284" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B285" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_PlatlapjuJaunas</v>
       </c>
       <c r="C285">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D285" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E285" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F285" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="B286" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_PlatlapjuKraja-sum</v>
+        <v>Mezi_PlatlapjuJaunas</v>
       </c>
       <c r="C286">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D286" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="E286" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F286" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="B287" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_PlatlapjuVecas</v>
+        <v>Mezi_PlatlapjuKraja-sum</v>
       </c>
       <c r="C287">
         <v>0</v>
       </c>
       <c r="D287" t="s">
-        <v>628</v>
+        <v>551</v>
       </c>
       <c r="E287" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F287" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B288" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_PlatlapjuVecas</v>
       </c>
       <c r="C288">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D288" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E288" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F288" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B289" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_PlatlapjuVecas</v>
       </c>
       <c r="C289">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D289" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E289" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F289" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B290" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_PlatlapjuVecas</v>
       </c>
       <c r="C290">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D290" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E290" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F290" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="B291" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_PriezuKraja-sum</v>
+        <v>Mezi_PlatlapjuVecas</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D291" t="s">
-        <v>552</v>
+        <v>631</v>
       </c>
       <c r="E291" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F291" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="B292" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_Saurlapju</v>
+        <v>Mezi_PriezuKraja-sum</v>
       </c>
       <c r="C292">
         <v>0</v>
       </c>
       <c r="D292" t="s">
-        <v>624</v>
+        <v>552</v>
       </c>
       <c r="E292" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F292" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B293" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_Saurlapju</v>
       </c>
       <c r="C293">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D293" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E293" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F293" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B294" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_Saurlapju</v>
       </c>
       <c r="C294">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D294" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E294" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F294" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B295" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_Saurlapju</v>
       </c>
       <c r="C295">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D295" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E295" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F295" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="B296" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_SaurlapjuCKraja-sum</v>
+        <v>Mezi_Saurlapju</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D296" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="E296" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F296" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="B297" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_SaurlapjuJaunas</v>
+        <v>Mezi_SaurlapjuCKraja-sum</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
       <c r="D297" t="s">
-        <v>616</v>
+        <v>553</v>
       </c>
       <c r="E297" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F297" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B298" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SaurlapjuJaunas</v>
       </c>
       <c r="C298">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D298" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E298" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F298" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B299" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SaurlapjuJaunas</v>
       </c>
       <c r="C299">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D299" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E299" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F299" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B300" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SaurlapjuJaunas</v>
       </c>
       <c r="C300">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D300" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E300" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F300" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B301" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_SaurlapjuVecas</v>
+        <v>Mezi_SaurlapjuJaunas</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D301" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E301" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F301" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B302" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SaurlapjuVecas</v>
       </c>
       <c r="C302">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D302" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E302" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F302" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B303" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SaurlapjuVecas</v>
       </c>
       <c r="C303">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D303" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E303" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F303" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B304" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SaurlapjuVecas</v>
       </c>
       <c r="C304">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D304" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E304" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F304" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="B305" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_SaurlapjuVKraja-sum</v>
+        <v>Mezi_SaurlapjuVecas</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D305" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="E305" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F305" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="B306" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_Skujkoku</v>
+        <v>Mezi_SaurlapjuVKraja-sum</v>
       </c>
       <c r="C306">
         <v>0</v>
       </c>
       <c r="D306" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="E306" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F306" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B307" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_Skujkoku</v>
       </c>
       <c r="C307">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D307" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E307" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F307" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B308" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_Skujkoku</v>
       </c>
       <c r="C308">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D308" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E308" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F308" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B309" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_Skujkoku</v>
       </c>
       <c r="C309">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D309" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E309" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F309" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B310" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_SkujkokuJaunas</v>
+        <v>Mezi_Skujkoku</v>
       </c>
       <c r="C310">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D310" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="E310" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F310" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B311" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SkujkokuJaunas</v>
       </c>
       <c r="C311">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D311" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E311" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F311" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B312" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SkujkokuJaunas</v>
       </c>
       <c r="C312">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D312" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E312" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F312" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B313" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SkujkokuJaunas</v>
       </c>
       <c r="C313">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D313" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E313" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F313" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="B314" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_SkujkokuKraja-sum</v>
+        <v>Mezi_SkujkokuJaunas</v>
       </c>
       <c r="C314">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D314" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="E314" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F314" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="B315" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_SkujkokuVecas</v>
+        <v>Mezi_SkujkokuKraja-sum</v>
       </c>
       <c r="C315">
         <v>0</v>
       </c>
       <c r="D315" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="E315" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F315" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B316" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SkujkokuVecas</v>
       </c>
       <c r="C316">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D316" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E316" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F316" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B317" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SkujkokuVecas</v>
       </c>
       <c r="C317">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D317" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E317" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F317" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B318" t="str">
         <f t="shared" si="4"/>
         <v>Mezi_SkujkokuVecas</v>
       </c>
       <c r="C318">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D318" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E318" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F318" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B319" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_TaucLaiks-vid</v>
+        <v>Mezi_SkujkokuVecas</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D319" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="E319" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F319" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B320" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_ValdosaisDiametrs-max</v>
+        <v>Mezi_TaucLaiks-vid</v>
       </c>
       <c r="C320">
         <v>0</v>
       </c>
       <c r="D320" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="E320" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F320" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B321" t="str">
         <f t="shared" si="4"/>
-        <v>Mezi_VidejasBriestaudzes</v>
+        <v>Mezi_ValdosaisDiametrs-max</v>
       </c>
       <c r="C321">
         <v>0</v>
       </c>
       <c r="D321" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E321" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F321" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B322" t="str">
-        <f t="shared" ref="B322:B338" si="5">_xlfn.TEXTBEFORE(A322,"_",2)</f>
+        <f t="shared" si="4"/>
         <v>Mezi_VidejasBriestaudzes</v>
       </c>
       <c r="C322">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D322" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E322" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F322" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B323" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B323:B339" si="5">_xlfn.TEXTBEFORE(A323,"_",2)</f>
         <v>Mezi_VidejasBriestaudzes</v>
       </c>
       <c r="C323">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D323" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E323" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F323" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B324" t="str">
         <f t="shared" si="5"/>
         <v>Mezi_VidejasBriestaudzes</v>
       </c>
       <c r="C324">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D324" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E324" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F324" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B325" t="str">
         <f t="shared" si="5"/>
         <v>Mezi_VidejasBriestaudzes</v>
       </c>
       <c r="C325">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D325" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E325" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F325" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B326" t="str">
         <f t="shared" si="5"/>
-        <v>Reljefs_Aspect-iqr</v>
+        <v>Mezi_VidejasBriestaudzes</v>
       </c>
       <c r="C326">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D326" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="E326" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F326" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B327" t="str">
         <f t="shared" si="5"/>
-        <v>Reljefs_Aspect-mean</v>
+        <v>Reljefs_Aspect-iqr</v>
       </c>
       <c r="C327">
         <v>0</v>
       </c>
       <c r="D327" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E327" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F327" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B328" t="str">
         <f t="shared" si="5"/>
-        <v>Reljefs_DiS-area</v>
+        <v>Reljefs_Aspect-mean</v>
       </c>
       <c r="C328">
         <v>0</v>
       </c>
       <c r="D328" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E328" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F328" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B329" t="str">
         <f t="shared" si="5"/>
         <v>Reljefs_DiS-area</v>
       </c>
       <c r="C329">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D329" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E329" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F329" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B330" t="str">
         <f t="shared" si="5"/>
         <v>Reljefs_DiS-area</v>
       </c>
       <c r="C330">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="D330" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E330" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F330" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B331" t="str">
         <f t="shared" si="5"/>
         <v>Reljefs_DiS-area</v>
       </c>
       <c r="C331">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="D331" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E331" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F331" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B332" t="str">
         <f t="shared" si="5"/>
         <v>Reljefs_DiS-area</v>
       </c>
       <c r="C332">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D332" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E332" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F332" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B333" t="str">
         <f t="shared" si="5"/>
-        <v>Reljefs_DiS-max</v>
+        <v>Reljefs_DiS-area</v>
       </c>
       <c r="C333">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D333" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E333" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F333" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B334" t="str">
         <f t="shared" si="5"/>
-        <v>Reljefs_DiS-mean</v>
+        <v>Reljefs_DiS-max</v>
       </c>
       <c r="C334">
         <v>0</v>
       </c>
       <c r="D334" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E334" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F334" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B335" t="str">
         <f t="shared" si="5"/>
-        <v>Reljefs_Slope-iqr</v>
+        <v>Reljefs_DiS-mean</v>
       </c>
       <c r="C335">
         <v>0</v>
       </c>
       <c r="D335" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E335" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F335" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B336" t="str">
         <f t="shared" si="5"/>
-        <v>Reljefs_Slope-mean</v>
+        <v>Reljefs_Slope-iqr</v>
       </c>
       <c r="C336">
         <v>0</v>
       </c>
       <c r="D336" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E336" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F336" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B337" t="str">
         <f t="shared" si="5"/>
-        <v>Reljefs_TWI-mean</v>
+        <v>Reljefs_Slope-mean</v>
       </c>
       <c r="C337">
         <v>0</v>
       </c>
       <c r="D337" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E337" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F337" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B338" t="str">
         <f t="shared" si="5"/>
-        <v>Soils_OrganicCarbon</v>
+        <v>Reljefs_TWI-mean</v>
       </c>
       <c r="C338">
         <v>0</v>
       </c>
       <c r="D338" t="s">
+        <v>579</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>262</v>
+      </c>
+      <c r="B339" t="str">
+        <f t="shared" si="5"/>
+        <v>Soils_OrganicCarbon</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339" t="s">
         <v>580</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E339" t="s">
         <v>1341</v>
       </c>
-      <c r="F338" t="s">
+      <c r="F339" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -11554,4 +11608,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70044F04-8F64-0B40-B6A3-632A5FC52DC5}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{E6CEE1B1-E326-3B4F-9CF4-92A34B11F909}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{89AD4865-6570-6F48-98E3-98F797D9A793}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>